--- a/config/sort_game_basic_card_config.xlsx
+++ b/config/sort_game_basic_card_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="11860"/>
+    <workbookView windowHeight="13340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4921" uniqueCount="4700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4939" uniqueCount="4716">
   <si>
     <t>id</t>
   </si>
@@ -8888,6 +8888,60 @@
     <t>TID_SORT_GAME_BASIC_WORD_GENOME</t>
   </si>
   <si>
+    <t>TV_WORD_SCREEN_1030</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_BASIC_WORD_TV</t>
+  </si>
+  <si>
+    <t>ATM_WORD_SCREEN_1030</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_BASIC_WORD_ATM</t>
+  </si>
+  <si>
+    <t>E_READER_WORD_SCREEN_1030</t>
+  </si>
+  <si>
+    <t>E-reader</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_BASIC_WORD_E_READER</t>
+  </si>
+  <si>
+    <t>BUZZER_WORD_ALARM_1031</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_BASIC_WORD_BUZZER</t>
+  </si>
+  <si>
+    <t>BEEP_WORD_ALARM_1031</t>
+  </si>
+  <si>
+    <t>Beep</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_BASIC_WORD_BEEP</t>
+  </si>
+  <si>
+    <t>RUSH_WORD_ALARM_1031</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_BASIC_WORD_RUSH</t>
+  </si>
+  <si>
     <t>PAWN_PIC_CHESS_1</t>
   </si>
   <si>
@@ -13259,9 +13313,6 @@
     <t>TV_PIC_SCREEN_68</t>
   </si>
   <si>
-    <t>TV</t>
-  </si>
-  <si>
     <t>screen_tv_1</t>
   </si>
   <si>
@@ -13272,9 +13323,6 @@
   </si>
   <si>
     <t>E_READER_PIC_SCREEN_68</t>
-  </si>
-  <si>
-    <t>E-reader</t>
   </si>
   <si>
     <t>screen_ereader_3</t>
@@ -15129,10 +15177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1640"/>
+  <dimension ref="A1:E1646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -27838,139 +27886,139 @@
         <v>2953</v>
       </c>
       <c r="B1001" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1001" s="5"/>
-      <c r="D1001" s="4" t="s">
         <v>2954</v>
       </c>
+      <c r="C1001" s="4" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D1001" s="5"/>
     </row>
     <row r="1002" ht="18.35" spans="1:4">
       <c r="A1002" s="4" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="B1002" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1002" s="5"/>
-      <c r="D1002" s="4" t="s">
-        <v>2956</v>
-      </c>
-    </row>
-    <row r="1003" ht="18.35" spans="1:4">
+        <v>2957</v>
+      </c>
+      <c r="C1002" s="4" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D1002" s="5"/>
+    </row>
+    <row r="1003" ht="31.75" spans="1:4">
       <c r="A1003" s="4" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="B1003" s="4" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C1003" s="5"/>
-      <c r="D1003" s="4" t="s">
-        <v>2958</v>
-      </c>
+        <v>2960</v>
+      </c>
+      <c r="C1003" s="4" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D1003" s="5"/>
     </row>
     <row r="1004" ht="18.35" spans="1:4">
       <c r="A1004" s="4" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="B1004" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1004" s="5"/>
-      <c r="D1004" s="4" t="s">
-        <v>2960</v>
-      </c>
+        <v>2963</v>
+      </c>
+      <c r="C1004" s="4" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D1004" s="5"/>
     </row>
     <row r="1005" ht="18.35" spans="1:4">
       <c r="A1005" s="4" t="s">
-        <v>2961</v>
+        <v>2965</v>
       </c>
       <c r="B1005" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1005" s="5"/>
-      <c r="D1005" s="4" t="s">
-        <v>2962</v>
-      </c>
+        <v>2966</v>
+      </c>
+      <c r="C1005" s="4" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D1005" s="5"/>
     </row>
     <row r="1006" ht="18.35" spans="1:4">
       <c r="A1006" s="4" t="s">
-        <v>2963</v>
+        <v>2968</v>
       </c>
       <c r="B1006" s="4" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C1006" s="5"/>
-      <c r="D1006" s="4" t="s">
-        <v>2964</v>
-      </c>
+        <v>2969</v>
+      </c>
+      <c r="C1006" s="4" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D1006" s="5"/>
     </row>
     <row r="1007" ht="18.35" spans="1:4">
       <c r="A1007" s="4" t="s">
-        <v>2965</v>
+        <v>2971</v>
       </c>
       <c r="B1007" s="4" t="s">
-        <v>2966</v>
+        <v>109</v>
       </c>
       <c r="C1007" s="5"/>
       <c r="D1007" s="4" t="s">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="1008" ht="31.75" spans="1:4">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="1008" ht="18.35" spans="1:4">
       <c r="A1008" s="4" t="s">
-        <v>2968</v>
+        <v>2973</v>
       </c>
       <c r="B1008" s="4" t="s">
-        <v>2969</v>
+        <v>112</v>
       </c>
       <c r="C1008" s="5"/>
       <c r="D1008" s="4" t="s">
-        <v>2970</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="1009" ht="18.35" spans="1:4">
       <c r="A1009" s="4" t="s">
-        <v>2971</v>
+        <v>2975</v>
       </c>
       <c r="B1009" s="4" t="s">
-        <v>2972</v>
+        <v>1568</v>
       </c>
       <c r="C1009" s="5"/>
       <c r="D1009" s="4" t="s">
-        <v>2973</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="1010" ht="18.35" spans="1:4">
       <c r="A1010" s="4" t="s">
-        <v>2974</v>
+        <v>2977</v>
       </c>
       <c r="B1010" s="4" t="s">
-        <v>2975</v>
+        <v>115</v>
       </c>
       <c r="C1010" s="5"/>
       <c r="D1010" s="4" t="s">
-        <v>2976</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="1011" ht="18.35" spans="1:4">
       <c r="A1011" s="4" t="s">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="B1011" s="4" t="s">
-        <v>2978</v>
+        <v>118</v>
       </c>
       <c r="C1011" s="5"/>
       <c r="D1011" s="4" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="1012" ht="18.35" spans="1:4">
       <c r="A1012" s="4" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="B1012" s="4" t="s">
-        <v>2981</v>
+        <v>1415</v>
       </c>
       <c r="C1012" s="5"/>
       <c r="D1012" s="4" t="s">
@@ -27989,7 +28037,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="1014" ht="18.35" spans="1:4">
+    <row r="1014" ht="31.75" spans="1:4">
       <c r="A1014" s="4" t="s">
         <v>2986</v>
       </c>
@@ -28013,7 +28061,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="1016" ht="31.75" spans="1:4">
+    <row r="1016" ht="18.35" spans="1:4">
       <c r="A1016" s="4" t="s">
         <v>2992</v>
       </c>
@@ -28097,7 +28145,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="1023" ht="31.75" spans="1:4">
+    <row r="1023" ht="18.35" spans="1:4">
       <c r="A1023" s="4" t="s">
         <v>3013</v>
       </c>
@@ -28109,7 +28157,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="1024" ht="31.75" spans="1:4">
+    <row r="1024" ht="18.35" spans="1:4">
       <c r="A1024" s="4" t="s">
         <v>3016</v>
       </c>
@@ -28121,7 +28169,7 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="1025" ht="31.75" spans="1:4">
+    <row r="1025" ht="18.35" spans="1:4">
       <c r="A1025" s="4" t="s">
         <v>3019</v>
       </c>
@@ -28145,7 +28193,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="1027" ht="31.75" spans="1:4">
+    <row r="1027" ht="18.35" spans="1:4">
       <c r="A1027" s="4" t="s">
         <v>3025</v>
       </c>
@@ -28157,7 +28205,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="1028" ht="18.35" spans="1:4">
+    <row r="1028" ht="31.75" spans="1:4">
       <c r="A1028" s="4" t="s">
         <v>3028</v>
       </c>
@@ -28169,7 +28217,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="1029" ht="18.35" spans="1:4">
+    <row r="1029" ht="31.75" spans="1:4">
       <c r="A1029" s="4" t="s">
         <v>3031</v>
       </c>
@@ -28181,7 +28229,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="1030" ht="18.35" spans="1:4">
+    <row r="1030" ht="31.75" spans="1:4">
       <c r="A1030" s="4" t="s">
         <v>3034</v>
       </c>
@@ -28193,7 +28241,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="1031" ht="18.35" spans="1:4">
+    <row r="1031" ht="31.75" spans="1:4">
       <c r="A1031" s="4" t="s">
         <v>3037</v>
       </c>
@@ -28217,156 +28265,156 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="1033" ht="18.35" spans="1:4">
+    <row r="1033" ht="31.75" spans="1:4">
       <c r="A1033" s="4" t="s">
         <v>3043</v>
       </c>
       <c r="B1033" s="4" t="s">
-        <v>421</v>
+        <v>3044</v>
       </c>
       <c r="C1033" s="5"/>
       <c r="D1033" s="4" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="1034" ht="18.35" spans="1:4">
       <c r="A1034" s="4" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="B1034" s="4" t="s">
-        <v>424</v>
+        <v>3047</v>
       </c>
       <c r="C1034" s="5"/>
       <c r="D1034" s="4" t="s">
-        <v>3046</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="1035" ht="18.35" spans="1:4">
       <c r="A1035" s="4" t="s">
-        <v>3047</v>
+        <v>3049</v>
       </c>
       <c r="B1035" s="4" t="s">
-        <v>427</v>
+        <v>3050</v>
       </c>
       <c r="C1035" s="5"/>
       <c r="D1035" s="4" t="s">
-        <v>3048</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="1036" ht="18.35" spans="1:4">
       <c r="A1036" s="4" t="s">
-        <v>3049</v>
+        <v>3052</v>
       </c>
       <c r="B1036" s="4" t="s">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="C1036" s="5"/>
       <c r="D1036" s="4" t="s">
-        <v>3051</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="1037" ht="18.35" spans="1:4">
       <c r="A1037" s="4" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="B1037" s="4" t="s">
-        <v>430</v>
+        <v>3056</v>
       </c>
       <c r="C1037" s="5"/>
       <c r="D1037" s="4" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="1038" ht="18.35" spans="1:4">
       <c r="A1038" s="4" t="s">
-        <v>3054</v>
+        <v>3058</v>
       </c>
       <c r="B1038" s="4" t="s">
-        <v>433</v>
+        <v>3059</v>
       </c>
       <c r="C1038" s="5"/>
       <c r="D1038" s="4" t="s">
-        <v>3055</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="1039" ht="18.35" spans="1:4">
       <c r="A1039" s="4" t="s">
-        <v>3056</v>
+        <v>3061</v>
       </c>
       <c r="B1039" s="4" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="C1039" s="5"/>
       <c r="D1039" s="4" t="s">
-        <v>3057</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1040" ht="18.35" spans="1:4">
       <c r="A1040" s="4" t="s">
-        <v>3058</v>
+        <v>3063</v>
       </c>
       <c r="B1040" s="4" t="s">
-        <v>3059</v>
+        <v>424</v>
       </c>
       <c r="C1040" s="5"/>
       <c r="D1040" s="4" t="s">
-        <v>3060</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="1041" ht="18.35" spans="1:4">
       <c r="A1041" s="4" t="s">
-        <v>3061</v>
+        <v>3065</v>
       </c>
       <c r="B1041" s="4" t="s">
-        <v>3062</v>
+        <v>427</v>
       </c>
       <c r="C1041" s="5"/>
       <c r="D1041" s="4" t="s">
-        <v>3063</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="1042" ht="18.35" spans="1:4">
       <c r="A1042" s="4" t="s">
-        <v>3064</v>
+        <v>3067</v>
       </c>
       <c r="B1042" s="4" t="s">
-        <v>3065</v>
+        <v>3068</v>
       </c>
       <c r="C1042" s="5"/>
       <c r="D1042" s="4" t="s">
-        <v>3066</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="1043" ht="18.35" spans="1:4">
       <c r="A1043" s="4" t="s">
-        <v>3067</v>
+        <v>3070</v>
       </c>
       <c r="B1043" s="4" t="s">
-        <v>3068</v>
+        <v>430</v>
       </c>
       <c r="C1043" s="5"/>
       <c r="D1043" s="4" t="s">
-        <v>3069</v>
-      </c>
-    </row>
-    <row r="1044" ht="31.75" spans="1:4">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="1044" ht="18.35" spans="1:4">
       <c r="A1044" s="4" t="s">
-        <v>3070</v>
+        <v>3072</v>
       </c>
       <c r="B1044" s="4" t="s">
-        <v>3071</v>
+        <v>433</v>
       </c>
       <c r="C1044" s="5"/>
       <c r="D1044" s="4" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1045" ht="18.35" spans="1:4">
       <c r="A1045" s="4" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="B1045" s="4" t="s">
-        <v>3074</v>
+        <v>436</v>
       </c>
       <c r="C1045" s="5"/>
       <c r="D1045" s="4" t="s">
@@ -28402,79 +28450,79 @@
         <v>3082</v>
       </c>
       <c r="B1048" s="4" t="s">
-        <v>1487</v>
+        <v>3083</v>
       </c>
       <c r="C1048" s="5"/>
       <c r="D1048" s="4" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1049" ht="18.35" spans="1:4">
       <c r="A1049" s="4" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="B1049" s="4" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="C1049" s="5"/>
       <c r="D1049" s="4" t="s">
-        <v>3086</v>
-      </c>
-    </row>
-    <row r="1050" ht="18.35" spans="1:4">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="1050" ht="31.75" spans="1:4">
       <c r="A1050" s="4" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="B1050" s="4" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C1050" s="5"/>
       <c r="D1050" s="4" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="1051" ht="18.35" spans="1:4">
       <c r="A1051" s="4" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="B1051" s="4" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="C1051" s="5"/>
       <c r="D1051" s="4" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="1052" ht="18.35" spans="1:4">
       <c r="A1052" s="4" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="B1052" s="4" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="C1052" s="5"/>
       <c r="D1052" s="4" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="1053" ht="18.35" spans="1:4">
       <c r="A1053" s="4" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="B1053" s="4" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="C1053" s="5"/>
       <c r="D1053" s="4" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="1054" ht="18.35" spans="1:4">
       <c r="A1054" s="4" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="B1054" s="4" t="s">
-        <v>3100</v>
+        <v>1487</v>
       </c>
       <c r="C1054" s="5"/>
       <c r="D1054" s="4" t="s">
@@ -28649,7 +28697,7 @@
         <v>3143</v>
       </c>
     </row>
-    <row r="1069" ht="31.75" spans="1:4">
+    <row r="1069" ht="18.35" spans="1:4">
       <c r="A1069" s="4" t="s">
         <v>3144</v>
       </c>
@@ -28721,7 +28769,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="1075" ht="18.35" spans="1:4">
+    <row r="1075" ht="31.75" spans="1:4">
       <c r="A1075" s="4" t="s">
         <v>3162</v>
       </c>
@@ -28894,223 +28942,223 @@
         <v>3204</v>
       </c>
       <c r="B1089" s="4" t="s">
-        <v>1526</v>
+        <v>3205</v>
       </c>
       <c r="C1089" s="5"/>
       <c r="D1089" s="4" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="1090" ht="18.35" spans="1:4">
       <c r="A1090" s="4" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="B1090" s="4" t="s">
-        <v>1529</v>
+        <v>3208</v>
       </c>
       <c r="C1090" s="5"/>
       <c r="D1090" s="4" t="s">
-        <v>3207</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="1091" ht="18.35" spans="1:4">
       <c r="A1091" s="4" t="s">
-        <v>3208</v>
+        <v>3210</v>
       </c>
       <c r="B1091" s="4" t="s">
-        <v>1532</v>
+        <v>3211</v>
       </c>
       <c r="C1091" s="5"/>
       <c r="D1091" s="4" t="s">
-        <v>3209</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="1092" ht="18.35" spans="1:4">
       <c r="A1092" s="4" t="s">
-        <v>3210</v>
+        <v>3213</v>
       </c>
       <c r="B1092" s="4" t="s">
-        <v>1535</v>
+        <v>3214</v>
       </c>
       <c r="C1092" s="5"/>
       <c r="D1092" s="4" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="1093" ht="18.35" spans="1:4">
       <c r="A1093" s="4" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="B1093" s="4" t="s">
-        <v>1538</v>
+        <v>3217</v>
       </c>
       <c r="C1093" s="5"/>
       <c r="D1093" s="4" t="s">
-        <v>3213</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="1094" ht="18.35" spans="1:4">
       <c r="A1094" s="4" t="s">
-        <v>3214</v>
+        <v>3219</v>
       </c>
       <c r="B1094" s="4" t="s">
-        <v>1541</v>
+        <v>3220</v>
       </c>
       <c r="C1094" s="5"/>
       <c r="D1094" s="4" t="s">
-        <v>3215</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="1095" ht="18.35" spans="1:4">
       <c r="A1095" s="4" t="s">
-        <v>3216</v>
+        <v>3222</v>
       </c>
       <c r="B1095" s="4" t="s">
-        <v>1544</v>
+        <v>1526</v>
       </c>
       <c r="C1095" s="5"/>
       <c r="D1095" s="4" t="s">
-        <v>3217</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="1096" ht="18.35" spans="1:4">
       <c r="A1096" s="4" t="s">
-        <v>3218</v>
+        <v>3224</v>
       </c>
       <c r="B1096" s="4" t="s">
-        <v>1547</v>
+        <v>1529</v>
       </c>
       <c r="C1096" s="5"/>
       <c r="D1096" s="4" t="s">
-        <v>3219</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="1097" ht="18.35" spans="1:4">
       <c r="A1097" s="4" t="s">
-        <v>3220</v>
+        <v>3226</v>
       </c>
       <c r="B1097" s="4" t="s">
-        <v>3221</v>
+        <v>1532</v>
       </c>
       <c r="C1097" s="5"/>
       <c r="D1097" s="4" t="s">
-        <v>3222</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="1098" ht="18.35" spans="1:4">
       <c r="A1098" s="4" t="s">
-        <v>3223</v>
+        <v>3228</v>
       </c>
       <c r="B1098" s="4" t="s">
-        <v>3224</v>
+        <v>1535</v>
       </c>
       <c r="C1098" s="5"/>
       <c r="D1098" s="4" t="s">
-        <v>3225</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="1099" ht="18.35" spans="1:4">
       <c r="A1099" s="4" t="s">
-        <v>3226</v>
+        <v>3230</v>
       </c>
       <c r="B1099" s="4" t="s">
-        <v>3227</v>
+        <v>1538</v>
       </c>
       <c r="C1099" s="5"/>
       <c r="D1099" s="4" t="s">
-        <v>3228</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="1100" ht="18.35" spans="1:4">
       <c r="A1100" s="4" t="s">
-        <v>3229</v>
+        <v>3232</v>
       </c>
       <c r="B1100" s="4" t="s">
-        <v>3230</v>
+        <v>1541</v>
       </c>
       <c r="C1100" s="5"/>
       <c r="D1100" s="4" t="s">
-        <v>3231</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="1101" ht="18.35" spans="1:4">
       <c r="A1101" s="4" t="s">
-        <v>3232</v>
+        <v>3234</v>
       </c>
       <c r="B1101" s="4" t="s">
-        <v>880</v>
+        <v>1544</v>
       </c>
       <c r="C1101" s="5"/>
       <c r="D1101" s="4" t="s">
-        <v>3233</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="1102" ht="18.35" spans="1:4">
       <c r="A1102" s="4" t="s">
-        <v>3234</v>
+        <v>3236</v>
       </c>
       <c r="B1102" s="4" t="s">
-        <v>3235</v>
+        <v>1547</v>
       </c>
       <c r="C1102" s="5"/>
       <c r="D1102" s="4" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="1103" ht="18.35" spans="1:4">
       <c r="A1103" s="4" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="B1103" s="4" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="C1103" s="5"/>
       <c r="D1103" s="4" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="1104" ht="18.35" spans="1:4">
       <c r="A1104" s="4" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="B1104" s="4" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="C1104" s="5"/>
       <c r="D1104" s="4" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="1105" ht="18.35" spans="1:4">
       <c r="A1105" s="4" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="B1105" s="4" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="C1105" s="5"/>
       <c r="D1105" s="4" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="1106" ht="18.35" spans="1:4">
       <c r="A1106" s="4" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="B1106" s="4" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="C1106" s="5"/>
       <c r="D1106" s="4" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="1107" ht="18.35" spans="1:4">
       <c r="A1107" s="4" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="B1107" s="4" t="s">
-        <v>3250</v>
+        <v>880</v>
       </c>
       <c r="C1107" s="5"/>
       <c r="D1107" s="4" t="s">
@@ -29182,259 +29230,259 @@
         <v>3267</v>
       </c>
       <c r="B1113" s="4" t="s">
-        <v>256</v>
+        <v>3268</v>
       </c>
       <c r="C1113" s="5"/>
       <c r="D1113" s="4" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="1114" ht="18.35" spans="1:4">
       <c r="A1114" s="4" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="B1114" s="4" t="s">
-        <v>259</v>
+        <v>3271</v>
       </c>
       <c r="C1114" s="5"/>
       <c r="D1114" s="4" t="s">
-        <v>3270</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="1115" ht="18.35" spans="1:4">
       <c r="A1115" s="4" t="s">
-        <v>3271</v>
+        <v>3273</v>
       </c>
       <c r="B1115" s="4" t="s">
-        <v>262</v>
+        <v>3274</v>
       </c>
       <c r="C1115" s="5"/>
       <c r="D1115" s="4" t="s">
-        <v>3272</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="1116" ht="18.35" spans="1:4">
       <c r="A1116" s="4" t="s">
-        <v>3273</v>
+        <v>3276</v>
       </c>
       <c r="B1116" s="4" t="s">
-        <v>265</v>
+        <v>3277</v>
       </c>
       <c r="C1116" s="5"/>
       <c r="D1116" s="4" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="1117" ht="18.35" spans="1:4">
       <c r="A1117" s="4" t="s">
-        <v>3275</v>
+        <v>3279</v>
       </c>
       <c r="B1117" s="4" t="s">
-        <v>268</v>
+        <v>3280</v>
       </c>
       <c r="C1117" s="5"/>
       <c r="D1117" s="4" t="s">
-        <v>3276</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="1118" ht="18.35" spans="1:4">
       <c r="A1118" s="4" t="s">
-        <v>3277</v>
+        <v>3282</v>
       </c>
       <c r="B1118" s="4" t="s">
-        <v>271</v>
+        <v>3283</v>
       </c>
       <c r="C1118" s="5"/>
       <c r="D1118" s="4" t="s">
-        <v>3278</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="1119" ht="18.35" spans="1:4">
       <c r="A1119" s="4" t="s">
-        <v>3279</v>
+        <v>3285</v>
       </c>
       <c r="B1119" s="4" t="s">
-        <v>3280</v>
+        <v>256</v>
       </c>
       <c r="C1119" s="5"/>
       <c r="D1119" s="4" t="s">
-        <v>3281</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="1120" ht="18.35" spans="1:4">
       <c r="A1120" s="4" t="s">
-        <v>3282</v>
+        <v>3287</v>
       </c>
       <c r="B1120" s="4" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C1120" s="5"/>
       <c r="D1120" s="4" t="s">
-        <v>3283</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="1121" ht="18.35" spans="1:4">
       <c r="A1121" s="4" t="s">
-        <v>3284</v>
+        <v>3289</v>
       </c>
       <c r="B1121" s="4" t="s">
-        <v>565</v>
+        <v>262</v>
       </c>
       <c r="C1121" s="5"/>
       <c r="D1121" s="4" t="s">
-        <v>3285</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="1122" ht="18.35" spans="1:4">
       <c r="A1122" s="4" t="s">
-        <v>3286</v>
+        <v>3291</v>
       </c>
       <c r="B1122" s="4" t="s">
-        <v>568</v>
+        <v>265</v>
       </c>
       <c r="C1122" s="5"/>
       <c r="D1122" s="4" t="s">
-        <v>3287</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="1123" ht="18.35" spans="1:4">
       <c r="A1123" s="4" t="s">
-        <v>3288</v>
+        <v>3293</v>
       </c>
       <c r="B1123" s="4" t="s">
-        <v>571</v>
+        <v>268</v>
       </c>
       <c r="C1123" s="5"/>
       <c r="D1123" s="4" t="s">
-        <v>3289</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="1124" ht="18.35" spans="1:4">
       <c r="A1124" s="4" t="s">
-        <v>3290</v>
+        <v>3295</v>
       </c>
       <c r="B1124" s="4" t="s">
-        <v>574</v>
+        <v>271</v>
       </c>
       <c r="C1124" s="5"/>
       <c r="D1124" s="4" t="s">
-        <v>3291</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="1125" ht="18.35" spans="1:4">
       <c r="A1125" s="4" t="s">
-        <v>3292</v>
+        <v>3297</v>
       </c>
       <c r="B1125" s="4" t="s">
-        <v>577</v>
+        <v>3298</v>
       </c>
       <c r="C1125" s="5"/>
       <c r="D1125" s="4" t="s">
-        <v>3293</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="1126" ht="18.35" spans="1:4">
       <c r="A1126" s="4" t="s">
-        <v>3294</v>
+        <v>3300</v>
       </c>
       <c r="B1126" s="4" t="s">
-        <v>580</v>
+        <v>277</v>
       </c>
       <c r="C1126" s="5"/>
       <c r="D1126" s="4" t="s">
-        <v>3295</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="1127" ht="18.35" spans="1:4">
       <c r="A1127" s="4" t="s">
-        <v>3296</v>
+        <v>3302</v>
       </c>
       <c r="B1127" s="4" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="C1127" s="5"/>
       <c r="D1127" s="4" t="s">
-        <v>3297</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="1128" ht="18.35" spans="1:4">
       <c r="A1128" s="4" t="s">
-        <v>3298</v>
+        <v>3304</v>
       </c>
       <c r="B1128" s="4" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="C1128" s="5"/>
       <c r="D1128" s="4" t="s">
-        <v>3299</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="1129" ht="18.35" spans="1:4">
       <c r="A1129" s="4" t="s">
-        <v>3300</v>
+        <v>3306</v>
       </c>
       <c r="B1129" s="4" t="s">
-        <v>3301</v>
+        <v>571</v>
       </c>
       <c r="C1129" s="5"/>
       <c r="D1129" s="4" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="1130" ht="18.35" spans="1:4">
       <c r="A1130" s="4" t="s">
-        <v>3303</v>
+        <v>3308</v>
       </c>
       <c r="B1130" s="4" t="s">
-        <v>3304</v>
+        <v>574</v>
       </c>
       <c r="C1130" s="5"/>
       <c r="D1130" s="4" t="s">
-        <v>3305</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="1131" ht="18.35" spans="1:4">
       <c r="A1131" s="4" t="s">
-        <v>3306</v>
+        <v>3310</v>
       </c>
       <c r="B1131" s="4" t="s">
-        <v>3307</v>
+        <v>577</v>
       </c>
       <c r="C1131" s="5"/>
       <c r="D1131" s="4" t="s">
-        <v>3308</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="1132" ht="18.35" spans="1:4">
       <c r="A1132" s="4" t="s">
-        <v>3309</v>
+        <v>3312</v>
       </c>
       <c r="B1132" s="4" t="s">
-        <v>3310</v>
+        <v>580</v>
       </c>
       <c r="C1132" s="5"/>
       <c r="D1132" s="4" t="s">
-        <v>3311</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="1133" ht="18.35" spans="1:4">
       <c r="A1133" s="4" t="s">
-        <v>3312</v>
+        <v>3314</v>
       </c>
       <c r="B1133" s="4" t="s">
-        <v>3313</v>
+        <v>583</v>
       </c>
       <c r="C1133" s="5"/>
       <c r="D1133" s="4" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="1134" ht="18.35" spans="1:4">
       <c r="A1134" s="4" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="B1134" s="4" t="s">
-        <v>3316</v>
+        <v>586</v>
       </c>
       <c r="C1134" s="5"/>
       <c r="D1134" s="4" t="s">
@@ -29446,79 +29494,79 @@
         <v>3318</v>
       </c>
       <c r="B1135" s="4" t="s">
-        <v>1895</v>
+        <v>3319</v>
       </c>
       <c r="C1135" s="5"/>
       <c r="D1135" s="4" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1136" ht="18.35" spans="1:4">
       <c r="A1136" s="4" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="B1136" s="4" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="C1136" s="5"/>
       <c r="D1136" s="4" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="1137" ht="18.35" spans="1:4">
       <c r="A1137" s="4" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="B1137" s="4" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="C1137" s="5"/>
       <c r="D1137" s="4" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1138" ht="18.35" spans="1:4">
       <c r="A1138" s="4" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="B1138" s="4" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="C1138" s="5"/>
       <c r="D1138" s="4" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="1139" ht="18.35" spans="1:4">
       <c r="A1139" s="4" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="B1139" s="4" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="C1139" s="5"/>
       <c r="D1139" s="4" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1140" ht="18.35" spans="1:4">
       <c r="A1140" s="4" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="B1140" s="4" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="C1140" s="5"/>
       <c r="D1140" s="4" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="1141" ht="18.35" spans="1:4">
       <c r="A1141" s="4" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="B1141" s="4" t="s">
-        <v>3336</v>
+        <v>1895</v>
       </c>
       <c r="C1141" s="5"/>
       <c r="D1141" s="4" t="s">
@@ -29566,259 +29614,259 @@
         <v>3347</v>
       </c>
       <c r="B1145" s="4" t="s">
-        <v>28</v>
+        <v>3348</v>
       </c>
       <c r="C1145" s="5"/>
       <c r="D1145" s="4" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="1146" ht="18.35" spans="1:4">
       <c r="A1146" s="4" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="B1146" s="4" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="C1146" s="5"/>
       <c r="D1146" s="4" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="1147" ht="18.35" spans="1:4">
       <c r="A1147" s="4" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="B1147" s="4" t="s">
-        <v>34</v>
+        <v>3354</v>
       </c>
       <c r="C1147" s="5"/>
       <c r="D1147" s="4" t="s">
-        <v>3353</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="1148" ht="18.35" spans="1:4">
       <c r="A1148" s="4" t="s">
-        <v>3354</v>
+        <v>3356</v>
       </c>
       <c r="B1148" s="4" t="s">
-        <v>31</v>
+        <v>3357</v>
       </c>
       <c r="C1148" s="5"/>
       <c r="D1148" s="4" t="s">
-        <v>3355</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="1149" ht="18.35" spans="1:4">
       <c r="A1149" s="4" t="s">
-        <v>3356</v>
+        <v>3359</v>
       </c>
       <c r="B1149" s="4" t="s">
-        <v>3357</v>
+        <v>3360</v>
       </c>
       <c r="C1149" s="5"/>
       <c r="D1149" s="4" t="s">
-        <v>3358</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="1150" ht="18.35" spans="1:4">
       <c r="A1150" s="4" t="s">
-        <v>3359</v>
+        <v>3362</v>
       </c>
       <c r="B1150" s="4" t="s">
-        <v>3360</v>
+        <v>3363</v>
       </c>
       <c r="C1150" s="5"/>
       <c r="D1150" s="4" t="s">
-        <v>3361</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="1151" ht="18.35" spans="1:4">
       <c r="A1151" s="4" t="s">
-        <v>3362</v>
+        <v>3365</v>
       </c>
       <c r="B1151" s="4" t="s">
-        <v>3363</v>
+        <v>28</v>
       </c>
       <c r="C1151" s="5"/>
       <c r="D1151" s="4" t="s">
-        <v>3364</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="1152" ht="18.35" spans="1:4">
       <c r="A1152" s="4" t="s">
-        <v>3365</v>
+        <v>3367</v>
       </c>
       <c r="B1152" s="4" t="s">
-        <v>25</v>
+        <v>3368</v>
       </c>
       <c r="C1152" s="5"/>
       <c r="D1152" s="4" t="s">
-        <v>3366</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="1153" ht="18.35" spans="1:4">
       <c r="A1153" s="4" t="s">
-        <v>3367</v>
+        <v>3370</v>
       </c>
       <c r="B1153" s="4" t="s">
-        <v>2218</v>
+        <v>34</v>
       </c>
       <c r="C1153" s="5"/>
       <c r="D1153" s="4" t="s">
-        <v>3368</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="1154" ht="18.35" spans="1:4">
       <c r="A1154" s="4" t="s">
-        <v>3369</v>
+        <v>3372</v>
       </c>
       <c r="B1154" s="4" t="s">
-        <v>2221</v>
+        <v>31</v>
       </c>
       <c r="C1154" s="5"/>
       <c r="D1154" s="4" t="s">
-        <v>3370</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="1155" ht="18.35" spans="1:4">
       <c r="A1155" s="4" t="s">
-        <v>3371</v>
+        <v>3374</v>
       </c>
       <c r="B1155" s="4" t="s">
-        <v>2224</v>
+        <v>3375</v>
       </c>
       <c r="C1155" s="5"/>
       <c r="D1155" s="4" t="s">
-        <v>3372</v>
-      </c>
-    </row>
-    <row r="1156" ht="31.75" spans="1:4">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="1156" ht="18.35" spans="1:4">
       <c r="A1156" s="4" t="s">
-        <v>3373</v>
+        <v>3377</v>
       </c>
       <c r="B1156" s="4" t="s">
-        <v>2227</v>
+        <v>3378</v>
       </c>
       <c r="C1156" s="5"/>
       <c r="D1156" s="4" t="s">
-        <v>3374</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="1157" ht="18.35" spans="1:4">
       <c r="A1157" s="4" t="s">
-        <v>3375</v>
+        <v>3380</v>
       </c>
       <c r="B1157" s="4" t="s">
-        <v>2230</v>
+        <v>3381</v>
       </c>
       <c r="C1157" s="5"/>
       <c r="D1157" s="4" t="s">
-        <v>3376</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="1158" ht="18.35" spans="1:4">
       <c r="A1158" s="4" t="s">
-        <v>3377</v>
+        <v>3383</v>
       </c>
       <c r="B1158" s="4" t="s">
-        <v>2233</v>
+        <v>25</v>
       </c>
       <c r="C1158" s="5"/>
       <c r="D1158" s="4" t="s">
-        <v>3378</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="1159" ht="18.35" spans="1:4">
       <c r="A1159" s="4" t="s">
-        <v>3379</v>
+        <v>3385</v>
       </c>
       <c r="B1159" s="4" t="s">
-        <v>2236</v>
+        <v>2218</v>
       </c>
       <c r="C1159" s="5"/>
       <c r="D1159" s="4" t="s">
-        <v>3380</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="1160" ht="18.35" spans="1:4">
       <c r="A1160" s="4" t="s">
-        <v>3381</v>
+        <v>3387</v>
       </c>
       <c r="B1160" s="4" t="s">
-        <v>2239</v>
+        <v>2221</v>
       </c>
       <c r="C1160" s="5"/>
       <c r="D1160" s="4" t="s">
-        <v>3382</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1161" ht="18.35" spans="1:4">
       <c r="A1161" s="4" t="s">
-        <v>3383</v>
+        <v>3389</v>
       </c>
       <c r="B1161" s="4" t="s">
-        <v>3384</v>
+        <v>2224</v>
       </c>
       <c r="C1161" s="5"/>
       <c r="D1161" s="4" t="s">
-        <v>3385</v>
-      </c>
-    </row>
-    <row r="1162" ht="18.35" spans="1:4">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="1162" ht="31.75" spans="1:4">
       <c r="A1162" s="4" t="s">
-        <v>3386</v>
+        <v>3391</v>
       </c>
       <c r="B1162" s="4" t="s">
-        <v>3387</v>
+        <v>2227</v>
       </c>
       <c r="C1162" s="5"/>
       <c r="D1162" s="4" t="s">
-        <v>3388</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1163" ht="18.35" spans="1:4">
       <c r="A1163" s="4" t="s">
-        <v>3389</v>
+        <v>3393</v>
       </c>
       <c r="B1163" s="4" t="s">
-        <v>3390</v>
+        <v>2230</v>
       </c>
       <c r="C1163" s="5"/>
       <c r="D1163" s="4" t="s">
-        <v>3391</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="1164" ht="18.35" spans="1:4">
       <c r="A1164" s="4" t="s">
-        <v>3392</v>
+        <v>3395</v>
       </c>
       <c r="B1164" s="4" t="s">
-        <v>3393</v>
+        <v>2233</v>
       </c>
       <c r="C1164" s="5"/>
       <c r="D1164" s="4" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="1165" ht="18.35" spans="1:4">
       <c r="A1165" s="4" t="s">
-        <v>3395</v>
+        <v>3397</v>
       </c>
       <c r="B1165" s="4" t="s">
-        <v>3396</v>
+        <v>2236</v>
       </c>
       <c r="C1165" s="5"/>
       <c r="D1165" s="4" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="1166" ht="18.35" spans="1:4">
       <c r="A1166" s="4" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="B1166" s="4" t="s">
-        <v>3399</v>
+        <v>2239</v>
       </c>
       <c r="C1166" s="5"/>
       <c r="D1166" s="4" t="s">
@@ -29866,79 +29914,79 @@
         <v>3410</v>
       </c>
       <c r="B1170" s="4" t="s">
-        <v>3148</v>
+        <v>3411</v>
       </c>
       <c r="C1170" s="5"/>
       <c r="D1170" s="4" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="1171" ht="18.35" spans="1:4">
       <c r="A1171" s="4" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="B1171" s="4" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="C1171" s="5"/>
       <c r="D1171" s="4" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="1172" ht="18.35" spans="1:4">
       <c r="A1172" s="4" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="B1172" s="4" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="C1172" s="5"/>
       <c r="D1172" s="4" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="1173" ht="18.35" spans="1:4">
       <c r="A1173" s="4" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="B1173" s="4" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="C1173" s="5"/>
       <c r="D1173" s="4" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="1174" ht="18.35" spans="1:4">
       <c r="A1174" s="4" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="B1174" s="4" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="C1174" s="5"/>
       <c r="D1174" s="4" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1175" ht="18.35" spans="1:4">
       <c r="A1175" s="4" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="B1175" s="4" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="C1175" s="5"/>
       <c r="D1175" s="4" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="1176" ht="18.35" spans="1:4">
       <c r="A1176" s="4" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="B1176" s="4" t="s">
-        <v>3428</v>
+        <v>3166</v>
       </c>
       <c r="C1176" s="5"/>
       <c r="D1176" s="4" t="s">
@@ -29974,103 +30022,103 @@
         <v>3436</v>
       </c>
       <c r="B1179" s="4" t="s">
-        <v>3360</v>
+        <v>3437</v>
       </c>
       <c r="C1179" s="5"/>
       <c r="D1179" s="4" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="1180" ht="18.35" spans="1:4">
       <c r="A1180" s="4" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="B1180" s="4" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="C1180" s="5"/>
       <c r="D1180" s="4" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="1181" ht="18.35" spans="1:4">
       <c r="A1181" s="4" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="B1181" s="4" t="s">
-        <v>106</v>
+        <v>3443</v>
       </c>
       <c r="C1181" s="5"/>
       <c r="D1181" s="4" t="s">
-        <v>3442</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="1182" ht="18.35" spans="1:4">
       <c r="A1182" s="4" t="s">
-        <v>3443</v>
+        <v>3445</v>
       </c>
       <c r="B1182" s="4" t="s">
-        <v>3444</v>
+        <v>3446</v>
       </c>
       <c r="C1182" s="5"/>
       <c r="D1182" s="4" t="s">
-        <v>3445</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="1183" ht="18.35" spans="1:4">
       <c r="A1183" s="4" t="s">
-        <v>3446</v>
+        <v>3448</v>
       </c>
       <c r="B1183" s="4" t="s">
-        <v>3447</v>
+        <v>3449</v>
       </c>
       <c r="C1183" s="5"/>
       <c r="D1183" s="4" t="s">
-        <v>3448</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="1184" ht="18.35" spans="1:4">
       <c r="A1184" s="4" t="s">
-        <v>3449</v>
+        <v>3451</v>
       </c>
       <c r="B1184" s="4" t="s">
-        <v>3450</v>
+        <v>3452</v>
       </c>
       <c r="C1184" s="5"/>
       <c r="D1184" s="4" t="s">
-        <v>3451</v>
-      </c>
-    </row>
-    <row r="1185" ht="31.75" spans="1:4">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1185" ht="18.35" spans="1:4">
       <c r="A1185" s="4" t="s">
-        <v>3452</v>
+        <v>3454</v>
       </c>
       <c r="B1185" s="4" t="s">
-        <v>3453</v>
+        <v>3378</v>
       </c>
       <c r="C1185" s="5"/>
       <c r="D1185" s="4" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="1186" ht="18.35" spans="1:4">
       <c r="A1186" s="4" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="B1186" s="4" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="C1186" s="5"/>
       <c r="D1186" s="4" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="1187" ht="18.35" spans="1:4">
       <c r="A1187" s="4" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="B1187" s="4" t="s">
-        <v>3459</v>
+        <v>106</v>
       </c>
       <c r="C1187" s="5"/>
       <c r="D1187" s="4" t="s">
@@ -30082,79 +30130,79 @@
         <v>3461</v>
       </c>
       <c r="B1188" s="4" t="s">
-        <v>739</v>
+        <v>3462</v>
       </c>
       <c r="C1188" s="5"/>
       <c r="D1188" s="4" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="1189" ht="18.35" spans="1:4">
       <c r="A1189" s="4" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="B1189" s="4" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="C1189" s="5"/>
       <c r="D1189" s="4" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="1190" ht="18.35" spans="1:4">
       <c r="A1190" s="4" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="B1190" s="4" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="C1190" s="5"/>
       <c r="D1190" s="4" t="s">
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="1191" ht="18.35" spans="1:4">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1191" ht="31.75" spans="1:4">
       <c r="A1191" s="4" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="B1191" s="4" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="C1191" s="5"/>
       <c r="D1191" s="4" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="1192" ht="18.35" spans="1:4">
       <c r="A1192" s="4" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="B1192" s="4" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="C1192" s="5"/>
       <c r="D1192" s="4" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="1193" ht="18.35" spans="1:4">
       <c r="A1193" s="4" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="B1193" s="4" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="C1193" s="5"/>
       <c r="D1193" s="4" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="1194" ht="18.35" spans="1:4">
       <c r="A1194" s="4" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="B1194" s="4" t="s">
-        <v>3479</v>
+        <v>739</v>
       </c>
       <c r="C1194" s="5"/>
       <c r="D1194" s="4" t="s">
@@ -30166,319 +30214,319 @@
         <v>3481</v>
       </c>
       <c r="B1195" s="4" t="s">
-        <v>1541</v>
+        <v>3482</v>
       </c>
       <c r="C1195" s="5"/>
       <c r="D1195" s="4" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="1196" ht="18.35" spans="1:4">
       <c r="A1196" s="4" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="B1196" s="4" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="C1196" s="5"/>
       <c r="D1196" s="4" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="1197" ht="18.35" spans="1:4">
       <c r="A1197" s="4" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="B1197" s="4" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="C1197" s="5"/>
       <c r="D1197" s="4" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1198" ht="18.35" spans="1:4">
       <c r="A1198" s="4" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="B1198" s="4" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="C1198" s="5"/>
       <c r="D1198" s="4" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="1199" ht="18.35" spans="1:4">
       <c r="A1199" s="4" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="B1199" s="4" t="s">
-        <v>2504</v>
+        <v>3494</v>
       </c>
       <c r="C1199" s="5"/>
       <c r="D1199" s="4" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="1200" ht="18.35" spans="1:4">
       <c r="A1200" s="4" t="s">
-        <v>3494</v>
+        <v>3496</v>
       </c>
       <c r="B1200" s="4" t="s">
-        <v>3495</v>
+        <v>3497</v>
       </c>
       <c r="C1200" s="5"/>
       <c r="D1200" s="4" t="s">
-        <v>3496</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="1201" ht="18.35" spans="1:4">
       <c r="A1201" s="4" t="s">
-        <v>3497</v>
+        <v>3499</v>
       </c>
       <c r="B1201" s="4" t="s">
-        <v>3498</v>
+        <v>1541</v>
       </c>
       <c r="C1201" s="5"/>
       <c r="D1201" s="4" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="1202" ht="18.35" spans="1:4">
       <c r="A1202" s="4" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="B1202" s="4" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="C1202" s="5"/>
       <c r="D1202" s="4" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1203" ht="18.35" spans="1:4">
       <c r="A1203" s="4" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="B1203" s="4" t="s">
-        <v>1856</v>
+        <v>3505</v>
       </c>
       <c r="C1203" s="5"/>
       <c r="D1203" s="4" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="1204" ht="18.35" spans="1:4">
       <c r="A1204" s="4" t="s">
-        <v>3505</v>
+        <v>3507</v>
       </c>
       <c r="B1204" s="4" t="s">
-        <v>3506</v>
+        <v>3508</v>
       </c>
       <c r="C1204" s="5"/>
       <c r="D1204" s="4" t="s">
-        <v>3507</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1205" ht="18.35" spans="1:4">
       <c r="A1205" s="4" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="B1205" s="4" t="s">
-        <v>3509</v>
+        <v>2504</v>
       </c>
       <c r="C1205" s="5"/>
       <c r="D1205" s="4" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1206" ht="18.35" spans="1:4">
       <c r="A1206" s="4" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="B1206" s="4" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="C1206" s="5"/>
       <c r="D1206" s="4" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="1207" ht="18.35" spans="1:4">
       <c r="A1207" s="4" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="B1207" s="4" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="C1207" s="5"/>
       <c r="D1207" s="4" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1208" ht="18.35" spans="1:4">
       <c r="A1208" s="4" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="B1208" s="4" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="C1208" s="5"/>
       <c r="D1208" s="4" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1209" ht="18.35" spans="1:4">
       <c r="A1209" s="4" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="B1209" s="4" t="s">
-        <v>1529</v>
+        <v>1856</v>
       </c>
       <c r="C1209" s="5"/>
       <c r="D1209" s="4" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="1210" ht="18.35" spans="1:4">
       <c r="A1210" s="4" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="B1210" s="4" t="s">
-        <v>1544</v>
+        <v>3524</v>
       </c>
       <c r="C1210" s="5"/>
       <c r="D1210" s="4" t="s">
-        <v>3523</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1211" ht="18.35" spans="1:4">
       <c r="A1211" s="4" t="s">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="B1211" s="4" t="s">
-        <v>1547</v>
+        <v>3527</v>
       </c>
       <c r="C1211" s="5"/>
       <c r="D1211" s="4" t="s">
-        <v>3525</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="1212" ht="18.35" spans="1:4">
       <c r="A1212" s="4" t="s">
-        <v>3526</v>
+        <v>3529</v>
       </c>
       <c r="B1212" s="4" t="s">
-        <v>3527</v>
+        <v>3530</v>
       </c>
       <c r="C1212" s="5"/>
       <c r="D1212" s="4" t="s">
-        <v>3528</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1213" ht="18.35" spans="1:4">
       <c r="A1213" s="4" t="s">
-        <v>3529</v>
+        <v>3532</v>
       </c>
       <c r="B1213" s="4" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="C1213" s="5"/>
       <c r="D1213" s="4" t="s">
-        <v>3531</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1214" ht="18.35" spans="1:4">
       <c r="A1214" s="4" t="s">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="B1214" s="4" t="s">
-        <v>3533</v>
+        <v>3536</v>
       </c>
       <c r="C1214" s="5"/>
       <c r="D1214" s="4" t="s">
-        <v>3534</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1215" ht="18.35" spans="1:4">
       <c r="A1215" s="4" t="s">
-        <v>3535</v>
+        <v>3538</v>
       </c>
       <c r="B1215" s="4" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C1215" s="5"/>
       <c r="D1215" s="4" t="s">
-        <v>3536</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1216" ht="18.35" spans="1:4">
       <c r="A1216" s="4" t="s">
-        <v>3537</v>
+        <v>3540</v>
       </c>
       <c r="B1216" s="4" t="s">
-        <v>3538</v>
+        <v>1544</v>
       </c>
       <c r="C1216" s="5"/>
       <c r="D1216" s="4" t="s">
-        <v>3539</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="1217" ht="18.35" spans="1:4">
       <c r="A1217" s="4" t="s">
-        <v>3540</v>
+        <v>3542</v>
       </c>
       <c r="B1217" s="4" t="s">
-        <v>3541</v>
+        <v>1547</v>
       </c>
       <c r="C1217" s="5"/>
       <c r="D1217" s="4" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1218" ht="18.35" spans="1:4">
       <c r="A1218" s="4" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="B1218" s="4" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="C1218" s="5"/>
       <c r="D1218" s="4" t="s">
-        <v>3545</v>
-      </c>
-    </row>
-    <row r="1219" ht="31.75" spans="1:4">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="1219" ht="18.35" spans="1:4">
       <c r="A1219" s="4" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="B1219" s="4" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="C1219" s="5"/>
       <c r="D1219" s="4" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="1220" ht="18.35" spans="1:4">
       <c r="A1220" s="4" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="B1220" s="4" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="C1220" s="5"/>
       <c r="D1220" s="4" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="1221" ht="18.35" spans="1:4">
       <c r="A1221" s="4" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="B1221" s="4" t="s">
-        <v>3553</v>
+        <v>1532</v>
       </c>
       <c r="C1221" s="5"/>
       <c r="D1221" s="4" t="s">
@@ -30521,7 +30569,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="1225" ht="18.35" spans="1:4">
+    <row r="1225" ht="31.75" spans="1:4">
       <c r="A1225" s="4" t="s">
         <v>3564</v>
       </c>
@@ -30538,134 +30586,134 @@
         <v>3567</v>
       </c>
       <c r="B1226" s="4" t="s">
-        <v>40</v>
+        <v>3568</v>
       </c>
       <c r="C1226" s="5"/>
       <c r="D1226" s="4" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="1227" ht="18.35" spans="1:4">
       <c r="A1227" s="4" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="B1227" s="4" t="s">
-        <v>46</v>
+        <v>3571</v>
       </c>
       <c r="C1227" s="5"/>
       <c r="D1227" s="4" t="s">
-        <v>3570</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="1228" ht="18.35" spans="1:4">
       <c r="A1228" s="4" t="s">
-        <v>3571</v>
+        <v>3573</v>
       </c>
       <c r="B1228" s="4" t="s">
-        <v>43</v>
+        <v>3574</v>
       </c>
       <c r="C1228" s="5"/>
       <c r="D1228" s="4" t="s">
-        <v>3572</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1229" ht="18.35" spans="1:4">
       <c r="A1229" s="4" t="s">
-        <v>3573</v>
+        <v>3576</v>
       </c>
       <c r="B1229" s="4" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="C1229" s="5"/>
       <c r="D1229" s="4" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1230" ht="18.35" spans="1:4">
       <c r="A1230" s="4" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="B1230" s="4" t="s">
-        <v>37</v>
+        <v>3580</v>
       </c>
       <c r="C1230" s="5"/>
       <c r="D1230" s="4" t="s">
-        <v>3577</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="1231" ht="18.35" spans="1:4">
       <c r="A1231" s="4" t="s">
-        <v>3578</v>
+        <v>3582</v>
       </c>
       <c r="B1231" s="4" t="s">
-        <v>3579</v>
+        <v>3583</v>
       </c>
       <c r="C1231" s="5"/>
       <c r="D1231" s="4" t="s">
-        <v>3580</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="1232" ht="18.35" spans="1:4">
       <c r="A1232" s="4" t="s">
-        <v>3581</v>
+        <v>3585</v>
       </c>
       <c r="B1232" s="4" t="s">
-        <v>3582</v>
+        <v>40</v>
       </c>
       <c r="C1232" s="5"/>
       <c r="D1232" s="4" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="1233" ht="18.35" spans="1:4">
       <c r="A1233" s="4" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
       <c r="B1233" s="4" t="s">
-        <v>3585</v>
+        <v>46</v>
       </c>
       <c r="C1233" s="5"/>
       <c r="D1233" s="4" t="s">
-        <v>3586</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="1234" ht="18.35" spans="1:4">
       <c r="A1234" s="4" t="s">
-        <v>3587</v>
+        <v>3589</v>
       </c>
       <c r="B1234" s="4" t="s">
-        <v>3588</v>
+        <v>43</v>
       </c>
       <c r="C1234" s="5"/>
       <c r="D1234" s="4" t="s">
-        <v>3589</v>
-      </c>
-    </row>
-    <row r="1235" ht="31.75" spans="1:4">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="1235" ht="18.35" spans="1:4">
       <c r="A1235" s="4" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="B1235" s="4" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="C1235" s="5"/>
       <c r="D1235" s="4" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1236" ht="18.35" spans="1:4">
       <c r="A1236" s="4" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="B1236" s="4" t="s">
-        <v>3594</v>
+        <v>37</v>
       </c>
       <c r="C1236" s="5"/>
       <c r="D1236" s="4" t="s">
         <v>3595</v>
       </c>
     </row>
-    <row r="1237" ht="31.75" spans="1:4">
+    <row r="1237" ht="18.35" spans="1:4">
       <c r="A1237" s="4" t="s">
         <v>3596</v>
       </c>
@@ -30718,475 +30766,475 @@
         <v>3608</v>
       </c>
       <c r="B1241" s="4" t="s">
-        <v>1361</v>
+        <v>3609</v>
       </c>
       <c r="C1241" s="5"/>
       <c r="D1241" s="4" t="s">
-        <v>3609</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1242" ht="18.35" spans="1:4">
       <c r="A1242" s="4" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="B1242" s="4" t="s">
-        <v>1075</v>
+        <v>3612</v>
       </c>
       <c r="C1242" s="5"/>
       <c r="D1242" s="4" t="s">
-        <v>3611</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="1243" ht="31.75" spans="1:4">
       <c r="A1243" s="4" t="s">
-        <v>3612</v>
+        <v>3614</v>
       </c>
       <c r="B1243" s="4" t="s">
-        <v>1355</v>
+        <v>3615</v>
       </c>
       <c r="C1243" s="5"/>
       <c r="D1243" s="4" t="s">
-        <v>3613</v>
-      </c>
-    </row>
-    <row r="1244" ht="31.75" spans="1:4">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="1244" ht="18.35" spans="1:4">
       <c r="A1244" s="4" t="s">
-        <v>3614</v>
+        <v>3617</v>
       </c>
       <c r="B1244" s="4" t="s">
-        <v>3615</v>
+        <v>3618</v>
       </c>
       <c r="C1244" s="5"/>
       <c r="D1244" s="4" t="s">
-        <v>3616</v>
-      </c>
-    </row>
-    <row r="1245" ht="31.75" spans="1:4">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="1245" ht="18.35" spans="1:4">
       <c r="A1245" s="4" t="s">
-        <v>3617</v>
+        <v>3620</v>
       </c>
       <c r="B1245" s="4" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
       <c r="C1245" s="5"/>
       <c r="D1245" s="4" t="s">
-        <v>3619</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="1246" ht="18.35" spans="1:4">
       <c r="A1246" s="4" t="s">
-        <v>3620</v>
+        <v>3623</v>
       </c>
       <c r="B1246" s="4" t="s">
-        <v>1358</v>
+        <v>3624</v>
       </c>
       <c r="C1246" s="5"/>
       <c r="D1246" s="4" t="s">
-        <v>3621</v>
-      </c>
-    </row>
-    <row r="1247" ht="18.35" spans="1:4">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="1247" ht="31.75" spans="1:4">
       <c r="A1247" s="4" t="s">
-        <v>3622</v>
+        <v>3626</v>
       </c>
       <c r="B1247" s="4" t="s">
-        <v>3623</v>
+        <v>1361</v>
       </c>
       <c r="C1247" s="5"/>
       <c r="D1247" s="4" t="s">
-        <v>3624</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1248" ht="18.35" spans="1:4">
       <c r="A1248" s="4" t="s">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="B1248" s="4" t="s">
-        <v>1348</v>
+        <v>1075</v>
       </c>
       <c r="C1248" s="5"/>
       <c r="D1248" s="4" t="s">
-        <v>3626</v>
-      </c>
-    </row>
-    <row r="1249" ht="18.35" spans="1:4">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="1249" ht="31.75" spans="1:4">
       <c r="A1249" s="4" t="s">
-        <v>3627</v>
+        <v>3630</v>
       </c>
       <c r="B1249" s="4" t="s">
-        <v>184</v>
+        <v>1355</v>
       </c>
       <c r="C1249" s="5"/>
       <c r="D1249" s="4" t="s">
-        <v>3628</v>
-      </c>
-    </row>
-    <row r="1250" ht="18.35" spans="1:4">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="1250" ht="31.75" spans="1:4">
       <c r="A1250" s="4" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="B1250" s="4" t="s">
-        <v>187</v>
+        <v>3633</v>
       </c>
       <c r="C1250" s="5"/>
       <c r="D1250" s="4" t="s">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="1251" ht="18.35" spans="1:4">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="1251" ht="31.75" spans="1:4">
       <c r="A1251" s="4" t="s">
-        <v>3631</v>
+        <v>3635</v>
       </c>
       <c r="B1251" s="4" t="s">
-        <v>190</v>
+        <v>3636</v>
       </c>
       <c r="C1251" s="5"/>
       <c r="D1251" s="4" t="s">
-        <v>3632</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1252" ht="18.35" spans="1:4">
       <c r="A1252" s="4" t="s">
-        <v>3633</v>
+        <v>3638</v>
       </c>
       <c r="B1252" s="4" t="s">
-        <v>193</v>
+        <v>1358</v>
       </c>
       <c r="C1252" s="5"/>
       <c r="D1252" s="4" t="s">
-        <v>3634</v>
-      </c>
-    </row>
-    <row r="1253" ht="31.75" spans="1:4">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="1253" ht="18.35" spans="1:4">
       <c r="A1253" s="4" t="s">
-        <v>3635</v>
+        <v>3640</v>
       </c>
       <c r="B1253" s="4" t="s">
-        <v>196</v>
+        <v>3641</v>
       </c>
       <c r="C1253" s="5"/>
       <c r="D1253" s="4" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1254" ht="18.35" spans="1:4">
       <c r="A1254" s="4" t="s">
-        <v>3637</v>
+        <v>3643</v>
       </c>
       <c r="B1254" s="4" t="s">
-        <v>199</v>
+        <v>1348</v>
       </c>
       <c r="C1254" s="5"/>
       <c r="D1254" s="4" t="s">
-        <v>3638</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1255" ht="18.35" spans="1:4">
       <c r="A1255" s="4" t="s">
-        <v>3639</v>
+        <v>3645</v>
       </c>
       <c r="B1255" s="4" t="s">
-        <v>3640</v>
+        <v>184</v>
       </c>
       <c r="C1255" s="5"/>
       <c r="D1255" s="4" t="s">
-        <v>3641</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="1256" ht="18.35" spans="1:4">
       <c r="A1256" s="4" t="s">
-        <v>3642</v>
+        <v>3647</v>
       </c>
       <c r="B1256" s="4" t="s">
-        <v>3643</v>
+        <v>187</v>
       </c>
       <c r="C1256" s="5"/>
       <c r="D1256" s="4" t="s">
-        <v>3644</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="1257" ht="18.35" spans="1:4">
       <c r="A1257" s="4" t="s">
-        <v>3645</v>
+        <v>3649</v>
       </c>
       <c r="B1257" s="4" t="s">
-        <v>997</v>
+        <v>190</v>
       </c>
       <c r="C1257" s="5"/>
       <c r="D1257" s="4" t="s">
-        <v>3646</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1258" ht="18.35" spans="1:4">
       <c r="A1258" s="4" t="s">
-        <v>3647</v>
+        <v>3651</v>
       </c>
       <c r="B1258" s="4" t="s">
-        <v>1000</v>
+        <v>193</v>
       </c>
       <c r="C1258" s="5"/>
       <c r="D1258" s="4" t="s">
-        <v>3648</v>
-      </c>
-    </row>
-    <row r="1259" ht="18.35" spans="1:4">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="1259" ht="31.75" spans="1:4">
       <c r="A1259" s="4" t="s">
-        <v>3649</v>
+        <v>3653</v>
       </c>
       <c r="B1259" s="4" t="s">
-        <v>1003</v>
+        <v>196</v>
       </c>
       <c r="C1259" s="5"/>
       <c r="D1259" s="4" t="s">
-        <v>3650</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="1260" ht="18.35" spans="1:4">
       <c r="A1260" s="4" t="s">
-        <v>3651</v>
+        <v>3655</v>
       </c>
       <c r="B1260" s="4" t="s">
-        <v>1006</v>
+        <v>199</v>
       </c>
       <c r="C1260" s="5"/>
       <c r="D1260" s="4" t="s">
-        <v>3652</v>
-      </c>
-    </row>
-    <row r="1261" ht="31.75" spans="1:4">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="1261" ht="18.35" spans="1:4">
       <c r="A1261" s="4" t="s">
-        <v>3653</v>
+        <v>3657</v>
       </c>
       <c r="B1261" s="4" t="s">
-        <v>1009</v>
+        <v>3658</v>
       </c>
       <c r="C1261" s="5"/>
       <c r="D1261" s="4" t="s">
-        <v>3654</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1262" ht="18.35" spans="1:4">
       <c r="A1262" s="4" t="s">
-        <v>3655</v>
+        <v>3660</v>
       </c>
       <c r="B1262" s="4" t="s">
-        <v>1012</v>
+        <v>3661</v>
       </c>
       <c r="C1262" s="5"/>
       <c r="D1262" s="4" t="s">
-        <v>3656</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="1263" ht="18.35" spans="1:4">
       <c r="A1263" s="4" t="s">
-        <v>3657</v>
+        <v>3663</v>
       </c>
       <c r="B1263" s="4" t="s">
-        <v>16</v>
+        <v>997</v>
       </c>
       <c r="C1263" s="5"/>
       <c r="D1263" s="4" t="s">
-        <v>3658</v>
-      </c>
-    </row>
-    <row r="1264" ht="31.75" spans="1:4">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="1264" ht="18.35" spans="1:4">
       <c r="A1264" s="4" t="s">
-        <v>3659</v>
+        <v>3665</v>
       </c>
       <c r="B1264" s="4" t="s">
-        <v>3660</v>
+        <v>1000</v>
       </c>
       <c r="C1264" s="5"/>
       <c r="D1264" s="4" t="s">
-        <v>3661</v>
-      </c>
-    </row>
-    <row r="1265" ht="31.75" spans="1:4">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="1265" ht="18.35" spans="1:4">
       <c r="A1265" s="4" t="s">
-        <v>3662</v>
+        <v>3667</v>
       </c>
       <c r="B1265" s="4" t="s">
-        <v>3663</v>
+        <v>1003</v>
       </c>
       <c r="C1265" s="5"/>
       <c r="D1265" s="4" t="s">
-        <v>3664</v>
-      </c>
-    </row>
-    <row r="1266" ht="31.75" spans="1:4">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1266" ht="18.35" spans="1:4">
       <c r="A1266" s="4" t="s">
-        <v>3665</v>
+        <v>3669</v>
       </c>
       <c r="B1266" s="4" t="s">
-        <v>3666</v>
+        <v>1006</v>
       </c>
       <c r="C1266" s="5"/>
       <c r="D1266" s="4" t="s">
-        <v>3667</v>
-      </c>
-    </row>
-    <row r="1267" ht="18.35" spans="1:4">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="1267" ht="31.75" spans="1:4">
       <c r="A1267" s="4" t="s">
-        <v>3668</v>
+        <v>3671</v>
       </c>
       <c r="B1267" s="4" t="s">
-        <v>2000</v>
+        <v>1009</v>
       </c>
       <c r="C1267" s="5"/>
       <c r="D1267" s="4" t="s">
-        <v>3669</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="1268" ht="18.35" spans="1:4">
       <c r="A1268" s="4" t="s">
-        <v>3670</v>
+        <v>3673</v>
       </c>
       <c r="B1268" s="4" t="s">
-        <v>1997</v>
+        <v>1012</v>
       </c>
       <c r="C1268" s="5"/>
       <c r="D1268" s="4" t="s">
-        <v>3671</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="1269" ht="18.35" spans="1:4">
       <c r="A1269" s="4" t="s">
-        <v>3672</v>
+        <v>3675</v>
       </c>
       <c r="B1269" s="4" t="s">
-        <v>1994</v>
+        <v>16</v>
       </c>
       <c r="C1269" s="5"/>
       <c r="D1269" s="4" t="s">
-        <v>3673</v>
-      </c>
-    </row>
-    <row r="1270" ht="18.35" spans="1:4">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="1270" ht="31.75" spans="1:4">
       <c r="A1270" s="4" t="s">
-        <v>3674</v>
+        <v>3677</v>
       </c>
       <c r="B1270" s="4" t="s">
-        <v>3675</v>
+        <v>3678</v>
       </c>
       <c r="C1270" s="5"/>
       <c r="D1270" s="4" t="s">
-        <v>3676</v>
-      </c>
-    </row>
-    <row r="1271" ht="18.35" spans="1:4">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="1271" ht="31.75" spans="1:4">
       <c r="A1271" s="4" t="s">
-        <v>3677</v>
+        <v>3680</v>
       </c>
       <c r="B1271" s="4" t="s">
-        <v>2003</v>
+        <v>3681</v>
       </c>
       <c r="C1271" s="5"/>
       <c r="D1271" s="4" t="s">
-        <v>3678</v>
-      </c>
-    </row>
-    <row r="1272" ht="18.35" spans="1:4">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="1272" ht="31.75" spans="1:4">
       <c r="A1272" s="4" t="s">
-        <v>3679</v>
+        <v>3683</v>
       </c>
       <c r="B1272" s="4" t="s">
-        <v>3680</v>
+        <v>3684</v>
       </c>
       <c r="C1272" s="5"/>
       <c r="D1272" s="4" t="s">
-        <v>3681</v>
-      </c>
-    </row>
-    <row r="1273" ht="31.75" spans="1:4">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="1273" ht="18.35" spans="1:4">
       <c r="A1273" s="4" t="s">
-        <v>3682</v>
+        <v>3686</v>
       </c>
       <c r="B1273" s="4" t="s">
-        <v>3683</v>
+        <v>2000</v>
       </c>
       <c r="C1273" s="5"/>
       <c r="D1273" s="4" t="s">
-        <v>3684</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1274" ht="18.35" spans="1:4">
       <c r="A1274" s="4" t="s">
-        <v>3685</v>
+        <v>3688</v>
       </c>
       <c r="B1274" s="4" t="s">
-        <v>22</v>
+        <v>1997</v>
       </c>
       <c r="C1274" s="5"/>
       <c r="D1274" s="4" t="s">
-        <v>3686</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="1275" ht="18.35" spans="1:4">
       <c r="A1275" s="4" t="s">
-        <v>3687</v>
+        <v>3690</v>
       </c>
       <c r="B1275" s="4" t="s">
-        <v>3688</v>
+        <v>1994</v>
       </c>
       <c r="C1275" s="5"/>
       <c r="D1275" s="4" t="s">
-        <v>3689</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="1276" ht="18.35" spans="1:4">
       <c r="A1276" s="4" t="s">
-        <v>3690</v>
+        <v>3692</v>
       </c>
       <c r="B1276" s="4" t="s">
-        <v>3691</v>
+        <v>3693</v>
       </c>
       <c r="C1276" s="5"/>
       <c r="D1276" s="4" t="s">
-        <v>3692</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="1277" ht="18.35" spans="1:4">
       <c r="A1277" s="4" t="s">
-        <v>3693</v>
+        <v>3695</v>
       </c>
       <c r="B1277" s="4" t="s">
-        <v>3694</v>
+        <v>2003</v>
       </c>
       <c r="C1277" s="5"/>
       <c r="D1277" s="4" t="s">
-        <v>3695</v>
-      </c>
-    </row>
-    <row r="1278" ht="31.75" spans="1:4">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="1278" ht="18.35" spans="1:4">
       <c r="A1278" s="4" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="B1278" s="4" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="C1278" s="5"/>
       <c r="D1278" s="4" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="1279" ht="31.75" spans="1:4">
       <c r="A1279" s="4" t="s">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="B1279" s="4" t="s">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="C1279" s="5"/>
       <c r="D1279" s="4" t="s">
-        <v>3701</v>
-      </c>
-    </row>
-    <row r="1280" ht="31.75" spans="1:4">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1280" ht="18.35" spans="1:4">
       <c r="A1280" s="4" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="B1280" s="4" t="s">
-        <v>3703</v>
+        <v>22</v>
       </c>
       <c r="C1280" s="5"/>
       <c r="D1280" s="4" t="s">
@@ -31222,379 +31270,379 @@
         <v>3711</v>
       </c>
       <c r="B1283" s="4" t="s">
-        <v>2671</v>
+        <v>3712</v>
       </c>
       <c r="C1283" s="5"/>
       <c r="D1283" s="4" t="s">
-        <v>3712</v>
-      </c>
-    </row>
-    <row r="1284" ht="18.35" spans="1:4">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="1284" ht="31.75" spans="1:4">
       <c r="A1284" s="4" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="B1284" s="4" t="s">
-        <v>2767</v>
+        <v>3715</v>
       </c>
       <c r="C1284" s="5"/>
       <c r="D1284" s="4" t="s">
-        <v>3714</v>
-      </c>
-    </row>
-    <row r="1285" ht="18.35" spans="1:4">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="1285" ht="31.75" spans="1:4">
       <c r="A1285" s="4" t="s">
-        <v>3715</v>
+        <v>3717</v>
       </c>
       <c r="B1285" s="4" t="s">
-        <v>3716</v>
+        <v>3718</v>
       </c>
       <c r="C1285" s="5"/>
       <c r="D1285" s="4" t="s">
-        <v>3717</v>
-      </c>
-    </row>
-    <row r="1286" ht="18.35" spans="1:4">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="1286" ht="31.75" spans="1:4">
       <c r="A1286" s="4" t="s">
-        <v>3718</v>
+        <v>3720</v>
       </c>
       <c r="B1286" s="4" t="s">
-        <v>3719</v>
+        <v>3721</v>
       </c>
       <c r="C1286" s="5"/>
       <c r="D1286" s="4" t="s">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="1287" ht="31.75" spans="1:4">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="1287" ht="18.35" spans="1:4">
       <c r="A1287" s="4" t="s">
-        <v>3721</v>
+        <v>3723</v>
       </c>
       <c r="B1287" s="4" t="s">
-        <v>3722</v>
+        <v>3724</v>
       </c>
       <c r="C1287" s="5"/>
       <c r="D1287" s="4" t="s">
-        <v>3723</v>
-      </c>
-    </row>
-    <row r="1288" ht="31.75" spans="1:4">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="1288" ht="18.35" spans="1:4">
       <c r="A1288" s="4" t="s">
-        <v>3724</v>
+        <v>3726</v>
       </c>
       <c r="B1288" s="4" t="s">
-        <v>3725</v>
+        <v>3727</v>
       </c>
       <c r="C1288" s="5"/>
       <c r="D1288" s="4" t="s">
-        <v>3726</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="1289" ht="18.35" spans="1:4">
       <c r="A1289" s="4" t="s">
-        <v>3727</v>
+        <v>3729</v>
       </c>
       <c r="B1289" s="4" t="s">
-        <v>841</v>
+        <v>2671</v>
       </c>
       <c r="C1289" s="5"/>
       <c r="D1289" s="4" t="s">
-        <v>3728</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="1290" ht="18.35" spans="1:4">
       <c r="A1290" s="4" t="s">
-        <v>3729</v>
+        <v>3731</v>
       </c>
       <c r="B1290" s="4" t="s">
-        <v>2830</v>
+        <v>2767</v>
       </c>
       <c r="C1290" s="5"/>
       <c r="D1290" s="4" t="s">
-        <v>3730</v>
-      </c>
-    </row>
-    <row r="1291" ht="31.75" spans="1:4">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="1291" ht="18.35" spans="1:4">
       <c r="A1291" s="4" t="s">
-        <v>3731</v>
+        <v>3733</v>
       </c>
       <c r="B1291" s="4" t="s">
-        <v>3732</v>
+        <v>3734</v>
       </c>
       <c r="C1291" s="5"/>
       <c r="D1291" s="4" t="s">
-        <v>3733</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="1292" ht="18.35" spans="1:4">
       <c r="A1292" s="4" t="s">
-        <v>3734</v>
+        <v>3736</v>
       </c>
       <c r="B1292" s="4" t="s">
-        <v>3735</v>
+        <v>3737</v>
       </c>
       <c r="C1292" s="5"/>
       <c r="D1292" s="4" t="s">
-        <v>3736</v>
-      </c>
-    </row>
-    <row r="1293" ht="18.35" spans="1:4">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="1293" ht="31.75" spans="1:4">
       <c r="A1293" s="4" t="s">
-        <v>3737</v>
+        <v>3739</v>
       </c>
       <c r="B1293" s="4" t="s">
-        <v>832</v>
+        <v>3740</v>
       </c>
       <c r="C1293" s="5"/>
       <c r="D1293" s="4" t="s">
-        <v>3738</v>
-      </c>
-    </row>
-    <row r="1294" ht="18.35" spans="1:4">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="1294" ht="31.75" spans="1:4">
       <c r="A1294" s="4" t="s">
-        <v>3739</v>
+        <v>3742</v>
       </c>
       <c r="B1294" s="4" t="s">
-        <v>3740</v>
+        <v>3743</v>
       </c>
       <c r="C1294" s="5"/>
       <c r="D1294" s="4" t="s">
-        <v>3741</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="1295" ht="18.35" spans="1:4">
       <c r="A1295" s="4" t="s">
-        <v>3742</v>
+        <v>3745</v>
       </c>
       <c r="B1295" s="4" t="s">
-        <v>2033</v>
+        <v>841</v>
       </c>
       <c r="C1295" s="5"/>
       <c r="D1295" s="4" t="s">
-        <v>3743</v>
-      </c>
-    </row>
-    <row r="1296" ht="31.75" spans="1:4">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="1296" ht="18.35" spans="1:4">
       <c r="A1296" s="4" t="s">
-        <v>3744</v>
+        <v>3747</v>
       </c>
       <c r="B1296" s="4" t="s">
-        <v>3745</v>
+        <v>2830</v>
       </c>
       <c r="C1296" s="5"/>
       <c r="D1296" s="4" t="s">
-        <v>3746</v>
-      </c>
-    </row>
-    <row r="1297" ht="18.35" spans="1:4">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="1297" ht="31.75" spans="1:4">
       <c r="A1297" s="4" t="s">
-        <v>3747</v>
+        <v>3749</v>
       </c>
       <c r="B1297" s="4" t="s">
-        <v>3748</v>
+        <v>3750</v>
       </c>
       <c r="C1297" s="5"/>
       <c r="D1297" s="4" t="s">
-        <v>3749</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1298" ht="18.35" spans="1:4">
       <c r="A1298" s="4" t="s">
-        <v>3750</v>
+        <v>3752</v>
       </c>
       <c r="B1298" s="4" t="s">
-        <v>3751</v>
+        <v>3753</v>
       </c>
       <c r="C1298" s="5"/>
       <c r="D1298" s="4" t="s">
-        <v>3752</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="1299" ht="18.35" spans="1:4">
       <c r="A1299" s="4" t="s">
-        <v>3753</v>
+        <v>3755</v>
       </c>
       <c r="B1299" s="4" t="s">
-        <v>3754</v>
+        <v>832</v>
       </c>
       <c r="C1299" s="5"/>
       <c r="D1299" s="4" t="s">
-        <v>3755</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1300" ht="18.35" spans="1:4">
       <c r="A1300" s="4" t="s">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="B1300" s="4" t="s">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="C1300" s="5"/>
       <c r="D1300" s="4" t="s">
-        <v>3758</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="1301" ht="18.35" spans="1:4">
       <c r="A1301" s="4" t="s">
-        <v>3759</v>
+        <v>3760</v>
       </c>
       <c r="B1301" s="4" t="s">
-        <v>667</v>
+        <v>2033</v>
       </c>
       <c r="C1301" s="5"/>
       <c r="D1301" s="4" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="1302" ht="31.75" spans="1:4">
       <c r="A1302" s="4" t="s">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="B1302" s="4" t="s">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="C1302" s="5"/>
       <c r="D1302" s="4" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="1303" ht="18.35" spans="1:4">
       <c r="A1303" s="4" t="s">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="B1303" s="4" t="s">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="C1303" s="5"/>
       <c r="D1303" s="4" t="s">
-        <v>3766</v>
-      </c>
-    </row>
-    <row r="1304" ht="31.75" spans="1:4">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="1304" ht="18.35" spans="1:4">
       <c r="A1304" s="4" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="B1304" s="4" t="s">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="C1304" s="5"/>
       <c r="D1304" s="4" t="s">
-        <v>3769</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="1305" ht="18.35" spans="1:4">
       <c r="A1305" s="4" t="s">
-        <v>3770</v>
+        <v>3771</v>
       </c>
       <c r="B1305" s="4" t="s">
-        <v>235</v>
+        <v>3772</v>
       </c>
       <c r="C1305" s="5"/>
       <c r="D1305" s="4" t="s">
-        <v>3771</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="1306" ht="18.35" spans="1:4">
       <c r="A1306" s="4" t="s">
-        <v>3772</v>
+        <v>3774</v>
       </c>
       <c r="B1306" s="4" t="s">
-        <v>238</v>
+        <v>3775</v>
       </c>
       <c r="C1306" s="5"/>
       <c r="D1306" s="4" t="s">
-        <v>3773</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="1307" ht="18.35" spans="1:4">
       <c r="A1307" s="4" t="s">
-        <v>3774</v>
+        <v>3777</v>
       </c>
       <c r="B1307" s="4" t="s">
-        <v>3775</v>
+        <v>667</v>
       </c>
       <c r="C1307" s="5"/>
       <c r="D1307" s="4" t="s">
-        <v>3776</v>
-      </c>
-    </row>
-    <row r="1308" ht="18.35" spans="1:4">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="1308" ht="31.75" spans="1:4">
       <c r="A1308" s="4" t="s">
-        <v>3777</v>
+        <v>3779</v>
       </c>
       <c r="B1308" s="4" t="s">
-        <v>241</v>
+        <v>3780</v>
       </c>
       <c r="C1308" s="5"/>
       <c r="D1308" s="4" t="s">
-        <v>3778</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1309" ht="18.35" spans="1:4">
       <c r="A1309" s="4" t="s">
-        <v>3779</v>
+        <v>3782</v>
       </c>
       <c r="B1309" s="4" t="s">
-        <v>3780</v>
+        <v>3783</v>
       </c>
       <c r="C1309" s="5"/>
       <c r="D1309" s="4" t="s">
-        <v>3781</v>
-      </c>
-    </row>
-    <row r="1310" ht="18.35" spans="1:4">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="1310" ht="31.75" spans="1:4">
       <c r="A1310" s="4" t="s">
-        <v>3782</v>
+        <v>3785</v>
       </c>
       <c r="B1310" s="4" t="s">
-        <v>3783</v>
+        <v>3786</v>
       </c>
       <c r="C1310" s="5"/>
       <c r="D1310" s="4" t="s">
-        <v>3784</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="1311" ht="18.35" spans="1:4">
       <c r="A1311" s="4" t="s">
-        <v>3785</v>
+        <v>3788</v>
       </c>
       <c r="B1311" s="4" t="s">
-        <v>3786</v>
+        <v>235</v>
       </c>
       <c r="C1311" s="5"/>
       <c r="D1311" s="4" t="s">
-        <v>3787</v>
-      </c>
-    </row>
-    <row r="1312" ht="31.75" spans="1:4">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="1312" ht="18.35" spans="1:4">
       <c r="A1312" s="4" t="s">
-        <v>3788</v>
+        <v>3790</v>
       </c>
       <c r="B1312" s="4" t="s">
-        <v>3789</v>
+        <v>238</v>
       </c>
       <c r="C1312" s="5"/>
       <c r="D1312" s="4" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="1313" ht="18.35" spans="1:4">
       <c r="A1313" s="4" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="B1313" s="4" t="s">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="C1313" s="5"/>
       <c r="D1313" s="4" t="s">
-        <v>3793</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="1314" ht="18.35" spans="1:4">
       <c r="A1314" s="4" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
       <c r="B1314" s="4" t="s">
-        <v>3795</v>
+        <v>241</v>
       </c>
       <c r="C1314" s="5"/>
       <c r="D1314" s="4" t="s">
@@ -31606,86 +31654,86 @@
         <v>3797</v>
       </c>
       <c r="B1315" s="4" t="s">
-        <v>3459</v>
+        <v>3798</v>
       </c>
       <c r="C1315" s="5"/>
       <c r="D1315" s="4" t="s">
-        <v>3798</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="1316" ht="18.35" spans="1:4">
       <c r="A1316" s="4" t="s">
-        <v>3799</v>
+        <v>3800</v>
       </c>
       <c r="B1316" s="4" t="s">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="C1316" s="5"/>
       <c r="D1316" s="4" t="s">
-        <v>3801</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="1317" ht="18.35" spans="1:4">
       <c r="A1317" s="4" t="s">
-        <v>3802</v>
+        <v>3803</v>
       </c>
       <c r="B1317" s="4" t="s">
-        <v>3803</v>
+        <v>3804</v>
       </c>
       <c r="C1317" s="5"/>
       <c r="D1317" s="4" t="s">
-        <v>3804</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1318" ht="31.75" spans="1:4">
       <c r="A1318" s="4" t="s">
-        <v>3805</v>
+        <v>3806</v>
       </c>
       <c r="B1318" s="4" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="C1318" s="5"/>
       <c r="D1318" s="4" t="s">
-        <v>3807</v>
-      </c>
-    </row>
-    <row r="1319" ht="31.75" spans="1:4">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="1319" ht="18.35" spans="1:4">
       <c r="A1319" s="4" t="s">
-        <v>3808</v>
+        <v>3809</v>
       </c>
       <c r="B1319" s="4" t="s">
-        <v>3809</v>
+        <v>3810</v>
       </c>
       <c r="C1319" s="5"/>
       <c r="D1319" s="4" t="s">
-        <v>3810</v>
-      </c>
-    </row>
-    <row r="1320" ht="31.75" spans="1:4">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="1320" ht="18.35" spans="1:4">
       <c r="A1320" s="4" t="s">
-        <v>3811</v>
+        <v>3812</v>
       </c>
       <c r="B1320" s="4" t="s">
-        <v>3812</v>
+        <v>3813</v>
       </c>
       <c r="C1320" s="5"/>
       <c r="D1320" s="4" t="s">
-        <v>3813</v>
-      </c>
-    </row>
-    <row r="1321" ht="31.75" spans="1:4">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="1321" ht="18.35" spans="1:4">
       <c r="A1321" s="4" t="s">
-        <v>3814</v>
+        <v>3815</v>
       </c>
       <c r="B1321" s="4" t="s">
-        <v>3815</v>
+        <v>3477</v>
       </c>
       <c r="C1321" s="5"/>
       <c r="D1321" s="4" t="s">
         <v>3816</v>
       </c>
     </row>
-    <row r="1322" ht="31.75" spans="1:4">
+    <row r="1322" ht="18.35" spans="1:4">
       <c r="A1322" s="4" t="s">
         <v>3817</v>
       </c>
@@ -31757,84 +31805,84 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="1328" ht="18.35" spans="1:4">
+    <row r="1328" ht="31.75" spans="1:4">
       <c r="A1328" s="4" t="s">
         <v>3835</v>
       </c>
       <c r="B1328" s="4" t="s">
-        <v>2130</v>
+        <v>3836</v>
       </c>
       <c r="C1328" s="5"/>
       <c r="D1328" s="4" t="s">
-        <v>3836</v>
-      </c>
-    </row>
-    <row r="1329" ht="31.75" spans="1:4">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="1329" ht="18.35" spans="1:4">
       <c r="A1329" s="4" t="s">
-        <v>3837</v>
+        <v>3838</v>
       </c>
       <c r="B1329" s="4" t="s">
-        <v>3838</v>
+        <v>3839</v>
       </c>
       <c r="C1329" s="5"/>
       <c r="D1329" s="4" t="s">
-        <v>3839</v>
-      </c>
-    </row>
-    <row r="1330" ht="18.35" spans="1:4">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="1330" ht="31.75" spans="1:4">
       <c r="A1330" s="4" t="s">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="B1330" s="4" t="s">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="C1330" s="5"/>
       <c r="D1330" s="4" t="s">
-        <v>3842</v>
-      </c>
-    </row>
-    <row r="1331" ht="18.35" spans="1:4">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="1331" ht="31.75" spans="1:4">
       <c r="A1331" s="4" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="B1331" s="4" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="C1331" s="5"/>
       <c r="D1331" s="4" t="s">
-        <v>3845</v>
-      </c>
-    </row>
-    <row r="1332" ht="18.35" spans="1:4">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="1332" ht="31.75" spans="1:4">
       <c r="A1332" s="4" t="s">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="B1332" s="4" t="s">
-        <v>3847</v>
+        <v>3848</v>
       </c>
       <c r="C1332" s="5"/>
       <c r="D1332" s="4" t="s">
-        <v>3848</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="1333" ht="31.75" spans="1:4">
       <c r="A1333" s="4" t="s">
-        <v>3849</v>
+        <v>3850</v>
       </c>
       <c r="B1333" s="4" t="s">
-        <v>3850</v>
+        <v>3851</v>
       </c>
       <c r="C1333" s="5"/>
       <c r="D1333" s="4" t="s">
-        <v>3851</v>
-      </c>
-    </row>
-    <row r="1334" ht="31.75" spans="1:4">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="1334" ht="18.35" spans="1:4">
       <c r="A1334" s="4" t="s">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="B1334" s="4" t="s">
-        <v>3853</v>
+        <v>2130</v>
       </c>
       <c r="C1334" s="5"/>
       <c r="D1334" s="4" t="s">
@@ -31853,7 +31901,7 @@
         <v>3857</v>
       </c>
     </row>
-    <row r="1336" ht="31.75" spans="1:4">
+    <row r="1336" ht="18.35" spans="1:4">
       <c r="A1336" s="4" t="s">
         <v>3858</v>
       </c>
@@ -31870,307 +31918,307 @@
         <v>3861</v>
       </c>
       <c r="B1337" s="4" t="s">
-        <v>19</v>
+        <v>3862</v>
       </c>
       <c r="C1337" s="5"/>
       <c r="D1337" s="4" t="s">
-        <v>3862</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="1338" ht="18.35" spans="1:4">
       <c r="A1338" s="4" t="s">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="B1338" s="4" t="s">
-        <v>13</v>
+        <v>3865</v>
       </c>
       <c r="C1338" s="5"/>
       <c r="D1338" s="4" t="s">
-        <v>3864</v>
-      </c>
-    </row>
-    <row r="1339" ht="18.35" spans="1:4">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="1339" ht="31.75" spans="1:4">
       <c r="A1339" s="4" t="s">
-        <v>3865</v>
+        <v>3867</v>
       </c>
       <c r="B1339" s="4" t="s">
-        <v>475</v>
+        <v>3868</v>
       </c>
       <c r="C1339" s="5"/>
       <c r="D1339" s="4" t="s">
-        <v>3866</v>
-      </c>
-    </row>
-    <row r="1340" ht="18.35" spans="1:4">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="1340" ht="31.75" spans="1:4">
       <c r="A1340" s="4" t="s">
-        <v>3867</v>
+        <v>3870</v>
       </c>
       <c r="B1340" s="4" t="s">
-        <v>1318</v>
+        <v>3871</v>
       </c>
       <c r="C1340" s="5"/>
       <c r="D1340" s="4" t="s">
-        <v>3868</v>
-      </c>
-    </row>
-    <row r="1341" ht="18.35" spans="1:4">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="1341" ht="31.75" spans="1:4">
       <c r="A1341" s="4" t="s">
-        <v>3869</v>
+        <v>3873</v>
       </c>
       <c r="B1341" s="4" t="s">
-        <v>3870</v>
+        <v>3874</v>
       </c>
       <c r="C1341" s="5"/>
       <c r="D1341" s="4" t="s">
-        <v>3871</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="1342" ht="31.75" spans="1:4">
       <c r="A1342" s="4" t="s">
-        <v>3872</v>
+        <v>3876</v>
       </c>
       <c r="B1342" s="4" t="s">
-        <v>1006</v>
+        <v>3877</v>
       </c>
       <c r="C1342" s="5"/>
       <c r="D1342" s="4" t="s">
-        <v>3873</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1343" ht="18.35" spans="1:4">
       <c r="A1343" s="4" t="s">
-        <v>3874</v>
+        <v>3879</v>
       </c>
       <c r="B1343" s="4" t="s">
-        <v>3875</v>
+        <v>19</v>
       </c>
       <c r="C1343" s="5"/>
       <c r="D1343" s="4" t="s">
-        <v>3876</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="1344" ht="18.35" spans="1:4">
       <c r="A1344" s="4" t="s">
-        <v>3877</v>
+        <v>3881</v>
       </c>
       <c r="B1344" s="4" t="s">
-        <v>2701</v>
+        <v>13</v>
       </c>
       <c r="C1344" s="5"/>
       <c r="D1344" s="4" t="s">
-        <v>3878</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="1345" ht="18.35" spans="1:4">
       <c r="A1345" s="4" t="s">
-        <v>3879</v>
+        <v>3883</v>
       </c>
       <c r="B1345" s="4" t="s">
-        <v>67</v>
+        <v>475</v>
       </c>
       <c r="C1345" s="5"/>
       <c r="D1345" s="4" t="s">
-        <v>3880</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="1346" ht="18.35" spans="1:4">
       <c r="A1346" s="4" t="s">
-        <v>3881</v>
+        <v>3885</v>
       </c>
       <c r="B1346" s="4" t="s">
-        <v>70</v>
+        <v>1318</v>
       </c>
       <c r="C1346" s="5"/>
       <c r="D1346" s="4" t="s">
-        <v>3882</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="1347" ht="18.35" spans="1:4">
       <c r="A1347" s="4" t="s">
-        <v>3883</v>
+        <v>3887</v>
       </c>
       <c r="B1347" s="4" t="s">
-        <v>73</v>
+        <v>3888</v>
       </c>
       <c r="C1347" s="5"/>
       <c r="D1347" s="4" t="s">
-        <v>3884</v>
-      </c>
-    </row>
-    <row r="1348" ht="18.35" spans="1:4">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="1348" ht="31.75" spans="1:4">
       <c r="A1348" s="4" t="s">
-        <v>3885</v>
+        <v>3890</v>
       </c>
       <c r="B1348" s="4" t="s">
-        <v>76</v>
+        <v>1006</v>
       </c>
       <c r="C1348" s="5"/>
       <c r="D1348" s="4" t="s">
-        <v>3886</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="1349" ht="18.35" spans="1:4">
       <c r="A1349" s="4" t="s">
-        <v>3887</v>
+        <v>3892</v>
       </c>
       <c r="B1349" s="4" t="s">
-        <v>3888</v>
+        <v>3893</v>
       </c>
       <c r="C1349" s="5"/>
       <c r="D1349" s="4" t="s">
-        <v>3889</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1350" ht="18.35" spans="1:4">
       <c r="A1350" s="4" t="s">
-        <v>3890</v>
+        <v>3895</v>
       </c>
       <c r="B1350" s="4" t="s">
-        <v>3891</v>
+        <v>2701</v>
       </c>
       <c r="C1350" s="5"/>
       <c r="D1350" s="4" t="s">
-        <v>3892</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1351" ht="18.35" spans="1:4">
       <c r="A1351" s="4" t="s">
-        <v>3893</v>
+        <v>3897</v>
       </c>
       <c r="B1351" s="4" t="s">
-        <v>3894</v>
+        <v>67</v>
       </c>
       <c r="C1351" s="5"/>
       <c r="D1351" s="4" t="s">
-        <v>3895</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1352" ht="18.35" spans="1:4">
       <c r="A1352" s="4" t="s">
-        <v>3896</v>
+        <v>3899</v>
       </c>
       <c r="B1352" s="4" t="s">
-        <v>3127</v>
+        <v>70</v>
       </c>
       <c r="C1352" s="5"/>
       <c r="D1352" s="4" t="s">
-        <v>3897</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="1353" ht="18.35" spans="1:4">
       <c r="A1353" s="4" t="s">
-        <v>3898</v>
+        <v>3901</v>
       </c>
       <c r="B1353" s="4" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C1353" s="5"/>
       <c r="D1353" s="4" t="s">
-        <v>3899</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1354" ht="18.35" spans="1:4">
       <c r="A1354" s="4" t="s">
-        <v>3900</v>
+        <v>3903</v>
       </c>
       <c r="B1354" s="4" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C1354" s="5"/>
       <c r="D1354" s="4" t="s">
-        <v>3901</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1355" ht="18.35" spans="1:4">
       <c r="A1355" s="4" t="s">
-        <v>3902</v>
+        <v>3905</v>
       </c>
       <c r="B1355" s="4" t="s">
-        <v>103</v>
+        <v>3906</v>
       </c>
       <c r="C1355" s="5"/>
       <c r="D1355" s="4" t="s">
-        <v>3903</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1356" ht="18.35" spans="1:4">
       <c r="A1356" s="4" t="s">
-        <v>3904</v>
+        <v>3908</v>
       </c>
       <c r="B1356" s="4" t="s">
-        <v>106</v>
+        <v>3909</v>
       </c>
       <c r="C1356" s="5"/>
       <c r="D1356" s="4" t="s">
-        <v>3905</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1357" ht="18.35" spans="1:4">
       <c r="A1357" s="4" t="s">
-        <v>3906</v>
+        <v>3911</v>
       </c>
       <c r="B1357" s="4" t="s">
-        <v>3907</v>
+        <v>3912</v>
       </c>
       <c r="C1357" s="5"/>
       <c r="D1357" s="4" t="s">
-        <v>3908</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="1358" ht="18.35" spans="1:4">
       <c r="A1358" s="4" t="s">
-        <v>3909</v>
+        <v>3914</v>
       </c>
       <c r="B1358" s="4" t="s">
-        <v>3910</v>
+        <v>3145</v>
       </c>
       <c r="C1358" s="5"/>
       <c r="D1358" s="4" t="s">
-        <v>3911</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1359" ht="18.35" spans="1:4">
       <c r="A1359" s="4" t="s">
-        <v>3912</v>
+        <v>3916</v>
       </c>
       <c r="B1359" s="4" t="s">
-        <v>3913</v>
+        <v>97</v>
       </c>
       <c r="C1359" s="5"/>
       <c r="D1359" s="4" t="s">
-        <v>3914</v>
-      </c>
-    </row>
-    <row r="1360" ht="31.75" spans="1:4">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="1360" ht="18.35" spans="1:4">
       <c r="A1360" s="4" t="s">
-        <v>3915</v>
+        <v>3918</v>
       </c>
       <c r="B1360" s="4" t="s">
-        <v>3916</v>
+        <v>100</v>
       </c>
       <c r="C1360" s="5"/>
       <c r="D1360" s="4" t="s">
-        <v>3917</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1361" ht="18.35" spans="1:4">
       <c r="A1361" s="4" t="s">
-        <v>3918</v>
+        <v>3920</v>
       </c>
       <c r="B1361" s="4" t="s">
-        <v>3919</v>
+        <v>103</v>
       </c>
       <c r="C1361" s="5"/>
       <c r="D1361" s="4" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="1362" ht="18.35" spans="1:4">
       <c r="A1362" s="4" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="B1362" s="4" t="s">
-        <v>3922</v>
+        <v>106</v>
       </c>
       <c r="C1362" s="5"/>
       <c r="D1362" s="4" t="s">
@@ -32213,7 +32261,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="1366" ht="18.35" spans="1:4">
+    <row r="1366" ht="31.75" spans="1:4">
       <c r="A1366" s="4" t="s">
         <v>3933</v>
       </c>
@@ -32230,295 +32278,295 @@
         <v>3936</v>
       </c>
       <c r="B1367" s="4" t="s">
-        <v>2295</v>
+        <v>3937</v>
       </c>
       <c r="C1367" s="5"/>
       <c r="D1367" s="4" t="s">
-        <v>3937</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1368" ht="18.35" spans="1:4">
       <c r="A1368" s="4" t="s">
-        <v>3938</v>
+        <v>3939</v>
       </c>
       <c r="B1368" s="4" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="C1368" s="5"/>
       <c r="D1368" s="4" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="1369" ht="18.35" spans="1:4">
       <c r="A1369" s="4" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="B1369" s="4" t="s">
-        <v>943</v>
+        <v>3943</v>
       </c>
       <c r="C1369" s="5"/>
       <c r="D1369" s="4" t="s">
-        <v>3942</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="1370" ht="18.35" spans="1:4">
       <c r="A1370" s="4" t="s">
-        <v>3943</v>
+        <v>3945</v>
       </c>
       <c r="B1370" s="4" t="s">
-        <v>946</v>
+        <v>3946</v>
       </c>
       <c r="C1370" s="5"/>
       <c r="D1370" s="4" t="s">
-        <v>3944</v>
-      </c>
-    </row>
-    <row r="1371" ht="31.75" spans="1:4">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="1371" ht="18.35" spans="1:4">
       <c r="A1371" s="4" t="s">
-        <v>3945</v>
+        <v>3948</v>
       </c>
       <c r="B1371" s="4" t="s">
-        <v>3946</v>
+        <v>3949</v>
       </c>
       <c r="C1371" s="5"/>
       <c r="D1371" s="4" t="s">
-        <v>3947</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1372" ht="18.35" spans="1:4">
       <c r="A1372" s="4" t="s">
-        <v>3948</v>
+        <v>3951</v>
       </c>
       <c r="B1372" s="4" t="s">
-        <v>952</v>
+        <v>3952</v>
       </c>
       <c r="C1372" s="5"/>
       <c r="D1372" s="4" t="s">
-        <v>3949</v>
-      </c>
-    </row>
-    <row r="1373" ht="31.75" spans="1:4">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="1373" ht="18.35" spans="1:4">
       <c r="A1373" s="4" t="s">
-        <v>3950</v>
+        <v>3954</v>
       </c>
       <c r="B1373" s="4" t="s">
-        <v>3951</v>
+        <v>2295</v>
       </c>
       <c r="C1373" s="5"/>
       <c r="D1373" s="4" t="s">
-        <v>3952</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="1374" ht="18.35" spans="1:4">
       <c r="A1374" s="4" t="s">
-        <v>3953</v>
+        <v>3956</v>
       </c>
       <c r="B1374" s="4" t="s">
-        <v>3954</v>
+        <v>3957</v>
       </c>
       <c r="C1374" s="5"/>
       <c r="D1374" s="4" t="s">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="1375" ht="31.75" spans="1:4">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1375" ht="18.35" spans="1:4">
       <c r="A1375" s="4" t="s">
-        <v>3956</v>
+        <v>3959</v>
       </c>
       <c r="B1375" s="4" t="s">
-        <v>3957</v>
+        <v>943</v>
       </c>
       <c r="C1375" s="5"/>
       <c r="D1375" s="4" t="s">
-        <v>3958</v>
-      </c>
-    </row>
-    <row r="1376" ht="31.75" spans="1:4">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="1376" ht="18.35" spans="1:4">
       <c r="A1376" s="4" t="s">
-        <v>3959</v>
+        <v>3961</v>
       </c>
       <c r="B1376" s="4" t="s">
-        <v>3960</v>
+        <v>946</v>
       </c>
       <c r="C1376" s="5"/>
       <c r="D1376" s="4" t="s">
-        <v>3961</v>
-      </c>
-    </row>
-    <row r="1377" ht="18.35" spans="1:4">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="1377" ht="31.75" spans="1:4">
       <c r="A1377" s="4" t="s">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="B1377" s="4" t="s">
-        <v>2301</v>
+        <v>3964</v>
       </c>
       <c r="C1377" s="5"/>
       <c r="D1377" s="4" t="s">
-        <v>3963</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="1378" ht="18.35" spans="1:4">
       <c r="A1378" s="4" t="s">
-        <v>3964</v>
+        <v>3966</v>
       </c>
       <c r="B1378" s="4" t="s">
-        <v>2304</v>
+        <v>952</v>
       </c>
       <c r="C1378" s="5"/>
       <c r="D1378" s="4" t="s">
-        <v>3965</v>
-      </c>
-    </row>
-    <row r="1379" ht="18.35" spans="1:4">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="1379" ht="31.75" spans="1:4">
       <c r="A1379" s="4" t="s">
-        <v>3966</v>
+        <v>3968</v>
       </c>
       <c r="B1379" s="4" t="s">
-        <v>2307</v>
+        <v>3969</v>
       </c>
       <c r="C1379" s="5"/>
       <c r="D1379" s="4" t="s">
-        <v>3967</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1380" ht="18.35" spans="1:4">
       <c r="A1380" s="4" t="s">
-        <v>3968</v>
+        <v>3971</v>
       </c>
       <c r="B1380" s="4" t="s">
-        <v>2310</v>
+        <v>3972</v>
       </c>
       <c r="C1380" s="5"/>
       <c r="D1380" s="4" t="s">
-        <v>3969</v>
-      </c>
-    </row>
-    <row r="1381" ht="18.35" spans="1:4">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="1381" ht="31.75" spans="1:4">
       <c r="A1381" s="4" t="s">
-        <v>3970</v>
+        <v>3974</v>
       </c>
       <c r="B1381" s="4" t="s">
-        <v>3971</v>
+        <v>3975</v>
       </c>
       <c r="C1381" s="5"/>
       <c r="D1381" s="4" t="s">
-        <v>3972</v>
-      </c>
-    </row>
-    <row r="1382" ht="18.35" spans="1:4">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="1382" ht="31.75" spans="1:4">
       <c r="A1382" s="4" t="s">
-        <v>3973</v>
+        <v>3977</v>
       </c>
       <c r="B1382" s="4" t="s">
-        <v>3444</v>
+        <v>3978</v>
       </c>
       <c r="C1382" s="5"/>
       <c r="D1382" s="4" t="s">
-        <v>3974</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="1383" ht="18.35" spans="1:4">
       <c r="A1383" s="4" t="s">
-        <v>3975</v>
+        <v>3980</v>
       </c>
       <c r="B1383" s="4" t="s">
-        <v>3934</v>
+        <v>2301</v>
       </c>
       <c r="C1383" s="5"/>
       <c r="D1383" s="4" t="s">
-        <v>3976</v>
-      </c>
-    </row>
-    <row r="1384" ht="31.75" spans="1:4">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="1384" ht="18.35" spans="1:4">
       <c r="A1384" s="4" t="s">
-        <v>3977</v>
+        <v>3982</v>
       </c>
       <c r="B1384" s="4" t="s">
-        <v>3978</v>
+        <v>2304</v>
       </c>
       <c r="C1384" s="5"/>
       <c r="D1384" s="4" t="s">
-        <v>3979</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1385" ht="18.35" spans="1:4">
       <c r="A1385" s="4" t="s">
-        <v>3980</v>
+        <v>3984</v>
       </c>
       <c r="B1385" s="4" t="s">
-        <v>1599</v>
+        <v>2307</v>
       </c>
       <c r="C1385" s="5"/>
       <c r="D1385" s="4" t="s">
-        <v>3981</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="1386" ht="18.35" spans="1:4">
       <c r="A1386" s="4" t="s">
-        <v>3982</v>
+        <v>3986</v>
       </c>
       <c r="B1386" s="4" t="s">
-        <v>3983</v>
+        <v>2310</v>
       </c>
       <c r="C1386" s="5"/>
       <c r="D1386" s="4" t="s">
-        <v>3984</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="1387" ht="18.35" spans="1:4">
       <c r="A1387" s="4" t="s">
-        <v>3985</v>
+        <v>3988</v>
       </c>
       <c r="B1387" s="4" t="s">
-        <v>3986</v>
+        <v>3989</v>
       </c>
       <c r="C1387" s="5"/>
       <c r="D1387" s="4" t="s">
-        <v>3987</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1388" ht="18.35" spans="1:4">
       <c r="A1388" s="4" t="s">
-        <v>3988</v>
+        <v>3991</v>
       </c>
       <c r="B1388" s="4" t="s">
-        <v>3989</v>
+        <v>3462</v>
       </c>
       <c r="C1388" s="5"/>
       <c r="D1388" s="4" t="s">
-        <v>3990</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1389" ht="18.35" spans="1:4">
       <c r="A1389" s="4" t="s">
-        <v>3991</v>
+        <v>3993</v>
       </c>
       <c r="B1389" s="4" t="s">
-        <v>3992</v>
+        <v>3952</v>
       </c>
       <c r="C1389" s="5"/>
       <c r="D1389" s="4" t="s">
-        <v>3993</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1390" ht="31.75" spans="1:4">
       <c r="A1390" s="4" t="s">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="B1390" s="4" t="s">
-        <v>3995</v>
+        <v>3996</v>
       </c>
       <c r="C1390" s="5"/>
       <c r="D1390" s="4" t="s">
-        <v>3996</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1391" ht="18.35" spans="1:4">
       <c r="A1391" s="4" t="s">
-        <v>3997</v>
+        <v>3998</v>
       </c>
       <c r="B1391" s="4" t="s">
-        <v>3998</v>
+        <v>1599</v>
       </c>
       <c r="C1391" s="5"/>
       <c r="D1391" s="4" t="s">
@@ -32573,7 +32621,7 @@
         <v>4011</v>
       </c>
     </row>
-    <row r="1396" ht="18.35" spans="1:4">
+    <row r="1396" ht="31.75" spans="1:4">
       <c r="A1396" s="4" t="s">
         <v>4012</v>
       </c>
@@ -32602,91 +32650,91 @@
         <v>4018</v>
       </c>
       <c r="B1398" s="4" t="s">
-        <v>1581</v>
+        <v>4019</v>
       </c>
       <c r="C1398" s="5"/>
       <c r="D1398" s="4" t="s">
-        <v>4019</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1399" ht="18.35" spans="1:4">
       <c r="A1399" s="4" t="s">
-        <v>4020</v>
+        <v>4021</v>
       </c>
       <c r="B1399" s="4" t="s">
-        <v>1587</v>
+        <v>4022</v>
       </c>
       <c r="C1399" s="5"/>
       <c r="D1399" s="4" t="s">
-        <v>4021</v>
-      </c>
-    </row>
-    <row r="1400" ht="31.75" spans="1:4">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="1400" ht="18.35" spans="1:4">
       <c r="A1400" s="4" t="s">
-        <v>4022</v>
+        <v>4024</v>
       </c>
       <c r="B1400" s="4" t="s">
-        <v>4023</v>
+        <v>4025</v>
       </c>
       <c r="C1400" s="5"/>
       <c r="D1400" s="4" t="s">
-        <v>4024</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1401" ht="18.35" spans="1:4">
       <c r="A1401" s="4" t="s">
-        <v>4025</v>
+        <v>4027</v>
       </c>
       <c r="B1401" s="4" t="s">
-        <v>4026</v>
+        <v>4028</v>
       </c>
       <c r="C1401" s="5"/>
       <c r="D1401" s="4" t="s">
-        <v>4027</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="1402" ht="18.35" spans="1:4">
       <c r="A1402" s="4" t="s">
-        <v>4028</v>
+        <v>4030</v>
       </c>
       <c r="B1402" s="4" t="s">
-        <v>4029</v>
+        <v>4031</v>
       </c>
       <c r="C1402" s="5"/>
       <c r="D1402" s="4" t="s">
-        <v>4030</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1403" ht="18.35" spans="1:4">
       <c r="A1403" s="4" t="s">
-        <v>4031</v>
+        <v>4033</v>
       </c>
       <c r="B1403" s="4" t="s">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="C1403" s="5"/>
       <c r="D1403" s="4" t="s">
-        <v>4033</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1404" ht="18.35" spans="1:4">
       <c r="A1404" s="4" t="s">
-        <v>4034</v>
+        <v>4036</v>
       </c>
       <c r="B1404" s="4" t="s">
-        <v>4035</v>
+        <v>1581</v>
       </c>
       <c r="C1404" s="5"/>
       <c r="D1404" s="4" t="s">
-        <v>4036</v>
-      </c>
-    </row>
-    <row r="1405" ht="31.75" spans="1:4">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="1405" ht="18.35" spans="1:4">
       <c r="A1405" s="4" t="s">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="B1405" s="4" t="s">
-        <v>4038</v>
+        <v>1587</v>
       </c>
       <c r="C1405" s="5"/>
       <c r="D1405" s="4" t="s">
@@ -32705,7 +32753,7 @@
         <v>4042</v>
       </c>
     </row>
-    <row r="1407" ht="31.75" spans="1:4">
+    <row r="1407" ht="18.35" spans="1:4">
       <c r="A1407" s="4" t="s">
         <v>4043</v>
       </c>
@@ -32717,7 +32765,7 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="1408" ht="31.75" spans="1:4">
+    <row r="1408" ht="18.35" spans="1:4">
       <c r="A1408" s="4" t="s">
         <v>4046</v>
       </c>
@@ -32753,156 +32801,156 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="1411" ht="18.35" spans="1:4">
+    <row r="1411" ht="31.75" spans="1:4">
       <c r="A1411" s="4" t="s">
         <v>4055</v>
       </c>
       <c r="B1411" s="4" t="s">
-        <v>373</v>
+        <v>4056</v>
       </c>
       <c r="C1411" s="5"/>
       <c r="D1411" s="4" t="s">
-        <v>4056</v>
-      </c>
-    </row>
-    <row r="1412" ht="18.35" spans="1:4">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="1412" ht="31.75" spans="1:4">
       <c r="A1412" s="4" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="B1412" s="4" t="s">
-        <v>4058</v>
+        <v>4059</v>
       </c>
       <c r="C1412" s="5"/>
       <c r="D1412" s="4" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="1413" ht="18.35" spans="1:4">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="1413" ht="31.75" spans="1:4">
       <c r="A1413" s="4" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="B1413" s="4" t="s">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="C1413" s="5"/>
       <c r="D1413" s="4" t="s">
-        <v>4062</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="1414" ht="31.75" spans="1:4">
       <c r="A1414" s="4" t="s">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="B1414" s="4" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="C1414" s="5"/>
       <c r="D1414" s="4" t="s">
-        <v>4065</v>
-      </c>
-    </row>
-    <row r="1415" ht="31.75" spans="1:4">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="1415" ht="18.35" spans="1:4">
       <c r="A1415" s="4" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="B1415" s="4" t="s">
-        <v>3703</v>
+        <v>4068</v>
       </c>
       <c r="C1415" s="5"/>
       <c r="D1415" s="4" t="s">
-        <v>4067</v>
-      </c>
-    </row>
-    <row r="1416" ht="31.75" spans="1:4">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="1416" ht="18.35" spans="1:4">
       <c r="A1416" s="4" t="s">
-        <v>4068</v>
+        <v>4070</v>
       </c>
       <c r="B1416" s="4" t="s">
-        <v>4069</v>
+        <v>4071</v>
       </c>
       <c r="C1416" s="5"/>
       <c r="D1416" s="4" t="s">
-        <v>4070</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="1417" ht="18.35" spans="1:4">
       <c r="A1417" s="4" t="s">
-        <v>4071</v>
+        <v>4073</v>
       </c>
       <c r="B1417" s="4" t="s">
-        <v>3447</v>
+        <v>373</v>
       </c>
       <c r="C1417" s="5"/>
       <c r="D1417" s="4" t="s">
-        <v>4072</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="1418" ht="18.35" spans="1:4">
       <c r="A1418" s="4" t="s">
-        <v>4073</v>
+        <v>4075</v>
       </c>
       <c r="B1418" s="4" t="s">
-        <v>4074</v>
+        <v>4076</v>
       </c>
       <c r="C1418" s="5"/>
       <c r="D1418" s="4" t="s">
-        <v>4075</v>
-      </c>
-    </row>
-    <row r="1419" ht="31.75" spans="1:4">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="1419" ht="18.35" spans="1:4">
       <c r="A1419" s="4" t="s">
-        <v>4076</v>
+        <v>4078</v>
       </c>
       <c r="B1419" s="4" t="s">
-        <v>4077</v>
+        <v>4079</v>
       </c>
       <c r="C1419" s="5"/>
       <c r="D1419" s="4" t="s">
-        <v>4078</v>
-      </c>
-    </row>
-    <row r="1420" ht="18.35" spans="1:4">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="1420" ht="31.75" spans="1:4">
       <c r="A1420" s="4" t="s">
-        <v>4079</v>
+        <v>4081</v>
       </c>
       <c r="B1420" s="4" t="s">
-        <v>4080</v>
+        <v>4082</v>
       </c>
       <c r="C1420" s="5"/>
       <c r="D1420" s="4" t="s">
-        <v>4081</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="1421" ht="31.75" spans="1:4">
       <c r="A1421" s="4" t="s">
-        <v>4082</v>
+        <v>4084</v>
       </c>
       <c r="B1421" s="4" t="s">
-        <v>4083</v>
+        <v>3721</v>
       </c>
       <c r="C1421" s="5"/>
       <c r="D1421" s="4" t="s">
-        <v>4084</v>
-      </c>
-    </row>
-    <row r="1422" ht="18.35" spans="1:4">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="1422" ht="31.75" spans="1:4">
       <c r="A1422" s="4" t="s">
-        <v>4085</v>
+        <v>4086</v>
       </c>
       <c r="B1422" s="4" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="C1422" s="5"/>
       <c r="D1422" s="4" t="s">
-        <v>4087</v>
-      </c>
-    </row>
-    <row r="1423" ht="31.75" spans="1:4">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="1423" ht="18.35" spans="1:4">
       <c r="A1423" s="4" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
       <c r="B1423" s="4" t="s">
-        <v>4089</v>
+        <v>3465</v>
       </c>
       <c r="C1423" s="5"/>
       <c r="D1423" s="4" t="s">
@@ -32921,7 +32969,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="1425" ht="18.35" spans="1:4">
+    <row r="1425" ht="31.75" spans="1:4">
       <c r="A1425" s="4" t="s">
         <v>4094</v>
       </c>
@@ -32945,7 +32993,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="1427" ht="18.35" spans="1:4">
+    <row r="1427" ht="31.75" spans="1:4">
       <c r="A1427" s="4" t="s">
         <v>4100</v>
       </c>
@@ -33041,7 +33089,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="1435" ht="18.35" spans="1:4">
+    <row r="1435" ht="31.75" spans="1:4">
       <c r="A1435" s="4" t="s">
         <v>4124</v>
       </c>
@@ -33077,7 +33125,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="1438" ht="31.75" spans="1:4">
+    <row r="1438" ht="18.35" spans="1:4">
       <c r="A1438" s="4" t="s">
         <v>4133</v>
       </c>
@@ -33089,7 +33137,7 @@
         <v>4135</v>
       </c>
     </row>
-    <row r="1439" ht="31.75" spans="1:4">
+    <row r="1439" ht="18.35" spans="1:4">
       <c r="A1439" s="4" t="s">
         <v>4136</v>
       </c>
@@ -33118,187 +33166,187 @@
         <v>4142</v>
       </c>
       <c r="B1441" s="4" t="s">
-        <v>2827</v>
+        <v>4143</v>
       </c>
       <c r="C1441" s="5"/>
       <c r="D1441" s="4" t="s">
-        <v>4143</v>
-      </c>
-    </row>
-    <row r="1442" ht="31.75" spans="1:4">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="1442" ht="18.35" spans="1:4">
       <c r="A1442" s="4" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="B1442" s="4" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="C1442" s="5"/>
       <c r="D1442" s="4" t="s">
-        <v>4146</v>
-      </c>
-    </row>
-    <row r="1443" ht="31.75" spans="1:4">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="1443" ht="18.35" spans="1:4">
       <c r="A1443" s="4" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="B1443" s="4" t="s">
-        <v>2833</v>
+        <v>4149</v>
       </c>
       <c r="C1443" s="5"/>
       <c r="D1443" s="4" t="s">
-        <v>4148</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1444" ht="31.75" spans="1:4">
       <c r="A1444" s="4" t="s">
-        <v>4149</v>
+        <v>4151</v>
       </c>
       <c r="B1444" s="4" t="s">
-        <v>2836</v>
+        <v>4152</v>
       </c>
       <c r="C1444" s="5"/>
       <c r="D1444" s="4" t="s">
-        <v>4150</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="1445" ht="31.75" spans="1:4">
       <c r="A1445" s="4" t="s">
-        <v>4151</v>
+        <v>4154</v>
       </c>
       <c r="B1445" s="4" t="s">
-        <v>4152</v>
+        <v>4155</v>
       </c>
       <c r="C1445" s="5"/>
       <c r="D1445" s="4" t="s">
-        <v>4153</v>
-      </c>
-    </row>
-    <row r="1446" ht="31.75" spans="1:4">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="1446" ht="18.35" spans="1:4">
       <c r="A1446" s="4" t="s">
-        <v>4154</v>
+        <v>4157</v>
       </c>
       <c r="B1446" s="4" t="s">
-        <v>4155</v>
+        <v>4158</v>
       </c>
       <c r="C1446" s="5"/>
       <c r="D1446" s="4" t="s">
-        <v>4156</v>
-      </c>
-    </row>
-    <row r="1447" ht="31.75" spans="1:4">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="1447" ht="18.35" spans="1:4">
       <c r="A1447" s="4" t="s">
-        <v>4157</v>
+        <v>4160</v>
       </c>
       <c r="B1447" s="4" t="s">
-        <v>4158</v>
+        <v>2827</v>
       </c>
       <c r="C1447" s="5"/>
       <c r="D1447" s="4" t="s">
-        <v>4159</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="1448" ht="31.75" spans="1:4">
       <c r="A1448" s="4" t="s">
-        <v>4160</v>
+        <v>4162</v>
       </c>
       <c r="B1448" s="4" t="s">
-        <v>4161</v>
+        <v>4163</v>
       </c>
       <c r="C1448" s="5"/>
       <c r="D1448" s="4" t="s">
-        <v>4162</v>
-      </c>
-    </row>
-    <row r="1449" ht="18.35" spans="1:4">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="1449" ht="31.75" spans="1:4">
       <c r="A1449" s="4" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B1449" s="4" t="s">
-        <v>4164</v>
+        <v>2833</v>
       </c>
       <c r="C1449" s="5"/>
       <c r="D1449" s="4" t="s">
-        <v>4165</v>
-      </c>
-    </row>
-    <row r="1450" ht="18.35" spans="1:4">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="1450" ht="31.75" spans="1:4">
       <c r="A1450" s="4" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="B1450" s="4" t="s">
-        <v>3680</v>
+        <v>2836</v>
       </c>
       <c r="C1450" s="5"/>
       <c r="D1450" s="4" t="s">
-        <v>4167</v>
-      </c>
-    </row>
-    <row r="1451" ht="18.35" spans="1:4">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="1451" ht="31.75" spans="1:4">
       <c r="A1451" s="4" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="B1451" s="4" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="C1451" s="5"/>
       <c r="D1451" s="4" t="s">
-        <v>4170</v>
-      </c>
-    </row>
-    <row r="1452" ht="18.35" spans="1:4">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="1452" ht="31.75" spans="1:4">
       <c r="A1452" s="4" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="B1452" s="4" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="C1452" s="5"/>
       <c r="D1452" s="4" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="1453" ht="31.75" spans="1:4">
       <c r="A1453" s="4" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="B1453" s="4" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="C1453" s="5"/>
       <c r="D1453" s="4" t="s">
-        <v>4176</v>
-      </c>
-    </row>
-    <row r="1454" ht="18.35" spans="1:4">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="1454" ht="31.75" spans="1:4">
       <c r="A1454" s="4" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="B1454" s="4" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="C1454" s="5"/>
       <c r="D1454" s="4" t="s">
-        <v>4179</v>
-      </c>
-    </row>
-    <row r="1455" ht="31.75" spans="1:4">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="1455" ht="18.35" spans="1:4">
       <c r="A1455" s="4" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="B1455" s="4" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="C1455" s="5"/>
       <c r="D1455" s="4" t="s">
-        <v>4182</v>
-      </c>
-    </row>
-    <row r="1456" ht="31.75" spans="1:4">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="1456" ht="18.35" spans="1:4">
       <c r="A1456" s="4" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="B1456" s="4" t="s">
-        <v>4184</v>
+        <v>3698</v>
       </c>
       <c r="C1456" s="5"/>
       <c r="D1456" s="4" t="s">
@@ -33329,7 +33377,7 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="1459" ht="18.35" spans="1:4">
+    <row r="1459" ht="31.75" spans="1:4">
       <c r="A1459" s="4" t="s">
         <v>4192</v>
       </c>
@@ -33353,7 +33401,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="1461" ht="18.35" spans="1:4">
+    <row r="1461" ht="31.75" spans="1:4">
       <c r="A1461" s="4" t="s">
         <v>4198</v>
       </c>
@@ -33365,7 +33413,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="1462" ht="18.35" spans="1:4">
+    <row r="1462" ht="31.75" spans="1:4">
       <c r="A1462" s="4" t="s">
         <v>4201</v>
       </c>
@@ -33377,7 +33425,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="1463" ht="31.75" spans="1:4">
+    <row r="1463" ht="18.35" spans="1:4">
       <c r="A1463" s="4" t="s">
         <v>4204</v>
       </c>
@@ -33389,7 +33437,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="1464" ht="31.75" spans="1:4">
+    <row r="1464" ht="18.35" spans="1:4">
       <c r="A1464" s="4" t="s">
         <v>4207</v>
       </c>
@@ -33406,242 +33454,242 @@
         <v>4210</v>
       </c>
       <c r="B1465" s="4" t="s">
-        <v>3130</v>
+        <v>4211</v>
       </c>
       <c r="C1465" s="5"/>
       <c r="D1465" s="4" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1466" ht="18.35" spans="1:4">
       <c r="A1466" s="4" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="B1466" s="4" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="C1466" s="5"/>
       <c r="D1466" s="4" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="1467" ht="18.35" spans="1:4">
       <c r="A1467" s="4" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="B1467" s="4" t="s">
-        <v>3413</v>
+        <v>4217</v>
       </c>
       <c r="C1467" s="5"/>
       <c r="D1467" s="4" t="s">
-        <v>4216</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1468" ht="18.35" spans="1:4">
       <c r="A1468" s="4" t="s">
-        <v>4217</v>
+        <v>4219</v>
       </c>
       <c r="B1468" s="4" t="s">
-        <v>4218</v>
+        <v>4220</v>
       </c>
       <c r="C1468" s="5"/>
       <c r="D1468" s="4" t="s">
-        <v>4219</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="1469" ht="31.75" spans="1:4">
       <c r="A1469" s="4" t="s">
-        <v>4220</v>
+        <v>4222</v>
       </c>
       <c r="B1469" s="4" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="C1469" s="5"/>
       <c r="D1469" s="4" t="s">
-        <v>4222</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1470" ht="31.75" spans="1:4">
       <c r="A1470" s="4" t="s">
-        <v>4223</v>
+        <v>4225</v>
       </c>
       <c r="B1470" s="4" t="s">
-        <v>4224</v>
+        <v>4226</v>
       </c>
       <c r="C1470" s="5"/>
       <c r="D1470" s="4" t="s">
-        <v>4225</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="1471" ht="18.35" spans="1:4">
       <c r="A1471" s="4" t="s">
-        <v>4226</v>
+        <v>4228</v>
       </c>
       <c r="B1471" s="4" t="s">
-        <v>4227</v>
+        <v>3148</v>
       </c>
       <c r="C1471" s="5"/>
       <c r="D1471" s="4" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="1472" ht="18.35" spans="1:4">
       <c r="A1472" s="4" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="B1472" s="4" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="C1472" s="5"/>
       <c r="D1472" s="4" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1473" ht="18.35" spans="1:4">
       <c r="A1473" s="4" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="B1473" s="4" t="s">
-        <v>3139</v>
+        <v>3431</v>
       </c>
       <c r="C1473" s="5"/>
       <c r="D1473" s="4" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1474" ht="18.35" spans="1:4">
       <c r="A1474" s="4" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="B1474" s="4" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="C1474" s="5"/>
       <c r="D1474" s="4" t="s">
-        <v>4236</v>
-      </c>
-    </row>
-    <row r="1475" ht="18.35" spans="1:4">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="1475" ht="31.75" spans="1:4">
       <c r="A1475" s="4" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="B1475" s="4" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="C1475" s="5"/>
       <c r="D1475" s="4" t="s">
-        <v>4239</v>
-      </c>
-    </row>
-    <row r="1476" ht="18.35" spans="1:4">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="1476" ht="31.75" spans="1:4">
       <c r="A1476" s="4" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="B1476" s="4" t="s">
-        <v>76</v>
+        <v>4242</v>
       </c>
       <c r="C1476" s="5"/>
       <c r="D1476" s="4" t="s">
-        <v>4241</v>
-      </c>
-    </row>
-    <row r="1477" ht="31.75" spans="1:4">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="1477" ht="18.35" spans="1:4">
       <c r="A1477" s="4" t="s">
-        <v>4242</v>
+        <v>4244</v>
       </c>
       <c r="B1477" s="4" t="s">
-        <v>4243</v>
+        <v>4245</v>
       </c>
       <c r="C1477" s="5"/>
       <c r="D1477" s="4" t="s">
-        <v>4244</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1478" ht="18.35" spans="1:4">
       <c r="A1478" s="4" t="s">
-        <v>4245</v>
+        <v>4247</v>
       </c>
       <c r="B1478" s="4" t="s">
-        <v>1264</v>
+        <v>4248</v>
       </c>
       <c r="C1478" s="5"/>
       <c r="D1478" s="4" t="s">
-        <v>4246</v>
-      </c>
-    </row>
-    <row r="1479" ht="31.75" spans="1:4">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="1479" ht="18.35" spans="1:4">
       <c r="A1479" s="4" t="s">
-        <v>4247</v>
+        <v>4250</v>
       </c>
       <c r="B1479" s="4" t="s">
-        <v>4248</v>
+        <v>3157</v>
       </c>
       <c r="C1479" s="5"/>
       <c r="D1479" s="4" t="s">
-        <v>4249</v>
-      </c>
-    </row>
-    <row r="1480" ht="31.75" spans="1:4">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="1480" ht="18.35" spans="1:4">
       <c r="A1480" s="4" t="s">
-        <v>4250</v>
+        <v>4252</v>
       </c>
       <c r="B1480" s="4" t="s">
-        <v>4251</v>
+        <v>4253</v>
       </c>
       <c r="C1480" s="5"/>
       <c r="D1480" s="4" t="s">
-        <v>4252</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1481" ht="18.35" spans="1:4">
       <c r="A1481" s="4" t="s">
-        <v>4253</v>
+        <v>4255</v>
       </c>
       <c r="B1481" s="4" t="s">
-        <v>4254</v>
+        <v>4256</v>
       </c>
       <c r="C1481" s="5"/>
       <c r="D1481" s="4" t="s">
-        <v>4255</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="1482" ht="18.35" spans="1:4">
       <c r="A1482" s="4" t="s">
-        <v>4256</v>
+        <v>4258</v>
       </c>
       <c r="B1482" s="4" t="s">
-        <v>4257</v>
+        <v>76</v>
       </c>
       <c r="C1482" s="5"/>
       <c r="D1482" s="4" t="s">
-        <v>4258</v>
-      </c>
-    </row>
-    <row r="1483" ht="18.35" spans="1:4">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="1483" ht="31.75" spans="1:4">
       <c r="A1483" s="4" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="B1483" s="4" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="C1483" s="5"/>
       <c r="D1483" s="4" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1484" ht="18.35" spans="1:4">
       <c r="A1484" s="4" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="B1484" s="4" t="s">
-        <v>4263</v>
+        <v>1264</v>
       </c>
       <c r="C1484" s="5"/>
       <c r="D1484" s="4" t="s">
         <v>4264</v>
       </c>
     </row>
-    <row r="1485" ht="18.35" spans="1:4">
+    <row r="1485" ht="31.75" spans="1:4">
       <c r="A1485" s="4" t="s">
         <v>4265</v>
       </c>
@@ -33653,7 +33701,7 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="1486" ht="18.35" spans="1:4">
+    <row r="1486" ht="31.75" spans="1:4">
       <c r="A1486" s="4" t="s">
         <v>4268</v>
       </c>
@@ -33677,7 +33725,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="1488" ht="31.75" spans="1:4">
+    <row r="1488" ht="18.35" spans="1:4">
       <c r="A1488" s="4" t="s">
         <v>4274</v>
       </c>
@@ -33694,103 +33742,103 @@
         <v>4277</v>
       </c>
       <c r="B1489" s="4" t="s">
-        <v>1195</v>
+        <v>4278</v>
       </c>
       <c r="C1489" s="5"/>
       <c r="D1489" s="4" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1490" ht="18.35" spans="1:4">
       <c r="A1490" s="4" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="B1490" s="4" t="s">
-        <v>1198</v>
+        <v>4281</v>
       </c>
       <c r="C1490" s="5"/>
       <c r="D1490" s="4" t="s">
-        <v>4280</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1491" ht="18.35" spans="1:4">
       <c r="A1491" s="4" t="s">
-        <v>4281</v>
+        <v>4283</v>
       </c>
       <c r="B1491" s="4" t="s">
-        <v>1201</v>
+        <v>4284</v>
       </c>
       <c r="C1491" s="5"/>
       <c r="D1491" s="4" t="s">
-        <v>4282</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="1492" ht="18.35" spans="1:4">
       <c r="A1492" s="4" t="s">
-        <v>4283</v>
+        <v>4286</v>
       </c>
       <c r="B1492" s="4" t="s">
-        <v>4284</v>
+        <v>4287</v>
       </c>
       <c r="C1492" s="5"/>
       <c r="D1492" s="4" t="s">
-        <v>4285</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1493" ht="18.35" spans="1:4">
       <c r="A1493" s="4" t="s">
-        <v>4286</v>
+        <v>4289</v>
       </c>
       <c r="B1493" s="4" t="s">
-        <v>4287</v>
+        <v>4290</v>
       </c>
       <c r="C1493" s="5"/>
       <c r="D1493" s="4" t="s">
-        <v>4288</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1494" ht="31.75" spans="1:4">
       <c r="A1494" s="4" t="s">
-        <v>4289</v>
+        <v>4292</v>
       </c>
       <c r="B1494" s="4" t="s">
-        <v>4290</v>
+        <v>4293</v>
       </c>
       <c r="C1494" s="5"/>
       <c r="D1494" s="4" t="s">
-        <v>4291</v>
-      </c>
-    </row>
-    <row r="1495" ht="31.75" spans="1:4">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="1495" ht="18.35" spans="1:4">
       <c r="A1495" s="4" t="s">
-        <v>4292</v>
+        <v>4295</v>
       </c>
       <c r="B1495" s="4" t="s">
-        <v>4293</v>
+        <v>1195</v>
       </c>
       <c r="C1495" s="5"/>
       <c r="D1495" s="4" t="s">
-        <v>4294</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1496" ht="18.35" spans="1:4">
       <c r="A1496" s="4" t="s">
-        <v>4295</v>
+        <v>4297</v>
       </c>
       <c r="B1496" s="4" t="s">
-        <v>4296</v>
+        <v>1198</v>
       </c>
       <c r="C1496" s="5"/>
       <c r="D1496" s="4" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1497" ht="18.35" spans="1:4">
       <c r="A1497" s="4" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="B1497" s="4" t="s">
-        <v>4299</v>
+        <v>1201</v>
       </c>
       <c r="C1497" s="5"/>
       <c r="D1497" s="4" t="s">
@@ -33821,168 +33869,168 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="1500" ht="18.35" spans="1:4">
+    <row r="1500" ht="31.75" spans="1:4">
       <c r="A1500" s="4" t="s">
         <v>4307</v>
       </c>
       <c r="B1500" s="4" t="s">
-        <v>3085</v>
+        <v>4308</v>
       </c>
       <c r="C1500" s="5"/>
       <c r="D1500" s="4" t="s">
-        <v>4308</v>
-      </c>
-    </row>
-    <row r="1501" ht="18.35" spans="1:4">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="1501" ht="31.75" spans="1:4">
       <c r="A1501" s="4" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="B1501" s="4" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="C1501" s="5"/>
       <c r="D1501" s="4" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1502" ht="18.35" spans="1:4">
       <c r="A1502" s="4" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="B1502" s="4" t="s">
-        <v>979</v>
+        <v>4314</v>
       </c>
       <c r="C1502" s="5"/>
       <c r="D1502" s="4" t="s">
-        <v>4313</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1503" ht="18.35" spans="1:4">
       <c r="A1503" s="4" t="s">
-        <v>4314</v>
+        <v>4316</v>
       </c>
       <c r="B1503" s="4" t="s">
-        <v>4315</v>
+        <v>4317</v>
       </c>
       <c r="C1503" s="5"/>
       <c r="D1503" s="4" t="s">
-        <v>4316</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1504" ht="18.35" spans="1:4">
       <c r="A1504" s="4" t="s">
-        <v>4317</v>
+        <v>4319</v>
       </c>
       <c r="B1504" s="4" t="s">
-        <v>4318</v>
+        <v>4320</v>
       </c>
       <c r="C1504" s="5"/>
       <c r="D1504" s="4" t="s">
-        <v>4319</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="1505" ht="18.35" spans="1:4">
       <c r="A1505" s="4" t="s">
-        <v>4320</v>
+        <v>4322</v>
       </c>
       <c r="B1505" s="4" t="s">
-        <v>1517</v>
+        <v>4323</v>
       </c>
       <c r="C1505" s="5"/>
       <c r="D1505" s="4" t="s">
-        <v>4321</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1506" ht="18.35" spans="1:4">
       <c r="A1506" s="4" t="s">
-        <v>4322</v>
+        <v>4325</v>
       </c>
       <c r="B1506" s="4" t="s">
-        <v>1520</v>
+        <v>3103</v>
       </c>
       <c r="C1506" s="5"/>
       <c r="D1506" s="4" t="s">
-        <v>4323</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1507" ht="18.35" spans="1:4">
       <c r="A1507" s="4" t="s">
-        <v>4324</v>
+        <v>4327</v>
       </c>
       <c r="B1507" s="4" t="s">
-        <v>1523</v>
+        <v>4328</v>
       </c>
       <c r="C1507" s="5"/>
       <c r="D1507" s="4" t="s">
-        <v>4325</v>
-      </c>
-    </row>
-    <row r="1508" ht="31.75" spans="1:4">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="1508" ht="18.35" spans="1:4">
       <c r="A1508" s="4" t="s">
-        <v>4326</v>
+        <v>4330</v>
       </c>
       <c r="B1508" s="4" t="s">
-        <v>4327</v>
+        <v>979</v>
       </c>
       <c r="C1508" s="5"/>
       <c r="D1508" s="4" t="s">
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="1509" ht="31.75" spans="1:4">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="1509" ht="18.35" spans="1:4">
       <c r="A1509" s="4" t="s">
-        <v>4329</v>
+        <v>4332</v>
       </c>
       <c r="B1509" s="4" t="s">
-        <v>4330</v>
+        <v>4333</v>
       </c>
       <c r="C1509" s="5"/>
       <c r="D1509" s="4" t="s">
-        <v>4331</v>
-      </c>
-    </row>
-    <row r="1510" ht="31.75" spans="1:4">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="1510" ht="18.35" spans="1:4">
       <c r="A1510" s="4" t="s">
-        <v>4332</v>
+        <v>4335</v>
       </c>
       <c r="B1510" s="4" t="s">
-        <v>4333</v>
+        <v>4336</v>
       </c>
       <c r="C1510" s="5"/>
       <c r="D1510" s="4" t="s">
-        <v>4334</v>
-      </c>
-    </row>
-    <row r="1511" ht="31.75" spans="1:4">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="1511" ht="18.35" spans="1:4">
       <c r="A1511" s="4" t="s">
-        <v>4335</v>
+        <v>4338</v>
       </c>
       <c r="B1511" s="4" t="s">
-        <v>4336</v>
+        <v>1517</v>
       </c>
       <c r="C1511" s="5"/>
       <c r="D1511" s="4" t="s">
-        <v>4337</v>
-      </c>
-    </row>
-    <row r="1512" ht="31.75" spans="1:4">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="1512" ht="18.35" spans="1:4">
       <c r="A1512" s="4" t="s">
-        <v>4338</v>
+        <v>4340</v>
       </c>
       <c r="B1512" s="4" t="s">
-        <v>4339</v>
+        <v>1520</v>
       </c>
       <c r="C1512" s="5"/>
       <c r="D1512" s="4" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1513" ht="18.35" spans="1:4">
       <c r="A1513" s="4" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="B1513" s="4" t="s">
-        <v>4342</v>
+        <v>1523</v>
       </c>
       <c r="C1513" s="5"/>
       <c r="D1513" s="4" t="s">
@@ -34001,7 +34049,7 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="1515" ht="18.35" spans="1:4">
+    <row r="1515" ht="31.75" spans="1:4">
       <c r="A1515" s="4" t="s">
         <v>4347</v>
       </c>
@@ -34025,7 +34073,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="1517" ht="18.35" spans="1:4">
+    <row r="1517" ht="31.75" spans="1:4">
       <c r="A1517" s="4" t="s">
         <v>4353</v>
       </c>
@@ -34037,180 +34085,180 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="1518" ht="18.35" spans="1:4">
+    <row r="1518" ht="31.75" spans="1:4">
       <c r="A1518" s="4" t="s">
         <v>4356</v>
       </c>
       <c r="B1518" s="4" t="s">
-        <v>1327</v>
+        <v>4357</v>
       </c>
       <c r="C1518" s="5"/>
       <c r="D1518" s="4" t="s">
-        <v>4357</v>
-      </c>
-    </row>
-    <row r="1519" ht="31.75" spans="1:4">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="1519" ht="18.35" spans="1:4">
       <c r="A1519" s="4" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="B1519" s="4" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="C1519" s="5"/>
       <c r="D1519" s="4" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1520" ht="31.75" spans="1:4">
       <c r="A1520" s="4" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="B1520" s="4" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="C1520" s="5"/>
       <c r="D1520" s="4" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1521" ht="18.35" spans="1:4">
       <c r="A1521" s="4" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="B1521" s="4" t="s">
-        <v>463</v>
+        <v>4366</v>
       </c>
       <c r="C1521" s="5"/>
       <c r="D1521" s="4" t="s">
-        <v>4365</v>
-      </c>
-    </row>
-    <row r="1522" ht="18.35" spans="1:4">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="1522" ht="31.75" spans="1:4">
       <c r="A1522" s="4" t="s">
-        <v>4366</v>
+        <v>4368</v>
       </c>
       <c r="B1522" s="4" t="s">
-        <v>4367</v>
+        <v>4369</v>
       </c>
       <c r="C1522" s="5"/>
       <c r="D1522" s="4" t="s">
-        <v>4368</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1523" ht="18.35" spans="1:4">
       <c r="A1523" s="4" t="s">
-        <v>4369</v>
+        <v>4371</v>
       </c>
       <c r="B1523" s="4" t="s">
-        <v>469</v>
+        <v>4372</v>
       </c>
       <c r="C1523" s="5"/>
       <c r="D1523" s="4" t="s">
-        <v>4370</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1524" ht="18.35" spans="1:4">
       <c r="A1524" s="4" t="s">
-        <v>4371</v>
+        <v>4374</v>
       </c>
       <c r="B1524" s="4" t="s">
-        <v>4372</v>
+        <v>1327</v>
       </c>
       <c r="C1524" s="5"/>
       <c r="D1524" s="4" t="s">
-        <v>4373</v>
-      </c>
-    </row>
-    <row r="1525" ht="18.35" spans="1:4">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="1525" ht="31.75" spans="1:4">
       <c r="A1525" s="4" t="s">
-        <v>4374</v>
+        <v>4376</v>
       </c>
       <c r="B1525" s="4" t="s">
-        <v>4375</v>
+        <v>4377</v>
       </c>
       <c r="C1525" s="5"/>
       <c r="D1525" s="4" t="s">
-        <v>4376</v>
-      </c>
-    </row>
-    <row r="1526" ht="18.35" spans="1:4">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="1526" ht="31.75" spans="1:4">
       <c r="A1526" s="4" t="s">
-        <v>4377</v>
+        <v>4379</v>
       </c>
       <c r="B1526" s="4" t="s">
-        <v>2263</v>
+        <v>4380</v>
       </c>
       <c r="C1526" s="5"/>
       <c r="D1526" s="4" t="s">
-        <v>4378</v>
-      </c>
-    </row>
-    <row r="1527" ht="31.75" spans="1:4">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="1527" ht="18.35" spans="1:4">
       <c r="A1527" s="4" t="s">
-        <v>4379</v>
+        <v>4382</v>
       </c>
       <c r="B1527" s="4" t="s">
-        <v>4380</v>
+        <v>463</v>
       </c>
       <c r="C1527" s="5"/>
       <c r="D1527" s="4" t="s">
-        <v>4381</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1528" ht="18.35" spans="1:4">
       <c r="A1528" s="4" t="s">
-        <v>4382</v>
+        <v>4384</v>
       </c>
       <c r="B1528" s="4" t="s">
-        <v>4383</v>
+        <v>4385</v>
       </c>
       <c r="C1528" s="5"/>
       <c r="D1528" s="4" t="s">
-        <v>4384</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1529" ht="18.35" spans="1:4">
       <c r="A1529" s="4" t="s">
-        <v>4385</v>
+        <v>4387</v>
       </c>
       <c r="B1529" s="4" t="s">
-        <v>4386</v>
+        <v>469</v>
       </c>
       <c r="C1529" s="5"/>
       <c r="D1529" s="4" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1530" ht="18.35" spans="1:4">
       <c r="A1530" s="4" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="B1530" s="4" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="C1530" s="5"/>
       <c r="D1530" s="4" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1531" ht="18.35" spans="1:4">
       <c r="A1531" s="4" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="B1531" s="4" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="C1531" s="5"/>
       <c r="D1531" s="4" t="s">
-        <v>4393</v>
-      </c>
-    </row>
-    <row r="1532" ht="31.75" spans="1:4">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="1532" ht="18.35" spans="1:4">
       <c r="A1532" s="4" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="B1532" s="4" t="s">
-        <v>4395</v>
+        <v>2263</v>
       </c>
       <c r="C1532" s="5"/>
       <c r="D1532" s="4" t="s">
@@ -34277,139 +34325,139 @@
         <v>4411</v>
       </c>
     </row>
-    <row r="1538" ht="18.35" spans="1:4">
+    <row r="1538" ht="31.75" spans="1:4">
       <c r="A1538" s="4" t="s">
         <v>4412</v>
       </c>
       <c r="B1538" s="4" t="s">
-        <v>3821</v>
+        <v>4413</v>
       </c>
       <c r="C1538" s="5"/>
       <c r="D1538" s="4" t="s">
-        <v>4413</v>
-      </c>
-    </row>
-    <row r="1539" ht="18.35" spans="1:4">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="1539" ht="31.75" spans="1:4">
       <c r="A1539" s="4" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="B1539" s="4" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="C1539" s="5"/>
       <c r="D1539" s="4" t="s">
-        <v>4416</v>
-      </c>
-    </row>
-    <row r="1540" ht="31.75" spans="1:4">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="1540" ht="18.35" spans="1:4">
       <c r="A1540" s="4" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="B1540" s="4" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="C1540" s="5"/>
       <c r="D1540" s="4" t="s">
-        <v>4419</v>
-      </c>
-    </row>
-    <row r="1541" ht="31.75" spans="1:4">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="1541" ht="18.35" spans="1:4">
       <c r="A1541" s="4" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="B1541" s="4" t="s">
-        <v>3818</v>
+        <v>4422</v>
       </c>
       <c r="C1541" s="5"/>
       <c r="D1541" s="4" t="s">
-        <v>4421</v>
-      </c>
-    </row>
-    <row r="1542" ht="31.75" spans="1:4">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="1542" ht="18.35" spans="1:4">
       <c r="A1542" s="4" t="s">
-        <v>4422</v>
+        <v>4424</v>
       </c>
       <c r="B1542" s="4" t="s">
-        <v>4423</v>
+        <v>4425</v>
       </c>
       <c r="C1542" s="5"/>
       <c r="D1542" s="4" t="s">
-        <v>4424</v>
-      </c>
-    </row>
-    <row r="1543" ht="31.75" spans="1:4">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="1543" ht="18.35" spans="1:4">
       <c r="A1543" s="4" t="s">
-        <v>4425</v>
+        <v>4427</v>
       </c>
       <c r="B1543" s="4" t="s">
-        <v>4426</v>
+        <v>2954</v>
       </c>
       <c r="C1543" s="5"/>
       <c r="D1543" s="4" t="s">
-        <v>4427</v>
-      </c>
-    </row>
-    <row r="1544" ht="31.75" spans="1:4">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="1544" ht="18.35" spans="1:4">
       <c r="A1544" s="4" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="B1544" s="4" t="s">
-        <v>4429</v>
+        <v>3839</v>
       </c>
       <c r="C1544" s="5"/>
       <c r="D1544" s="4" t="s">
         <v>4430</v>
       </c>
     </row>
-    <row r="1545" ht="31.75" spans="1:4">
+    <row r="1545" ht="18.35" spans="1:4">
       <c r="A1545" s="4" t="s">
         <v>4431</v>
       </c>
       <c r="B1545" s="4" t="s">
-        <v>4432</v>
+        <v>2960</v>
       </c>
       <c r="C1545" s="5"/>
       <c r="D1545" s="4" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="1546" ht="31.75" spans="1:4">
+      <c r="A1546" s="4" t="s">
         <v>4433</v>
       </c>
-    </row>
-    <row r="1546" ht="18.35" spans="1:4">
-      <c r="A1546" s="4" t="s">
+      <c r="B1546" s="4" t="s">
         <v>4434</v>
-      </c>
-      <c r="B1546" s="4" t="s">
-        <v>3065</v>
       </c>
       <c r="C1546" s="5"/>
       <c r="D1546" s="4" t="s">
         <v>4435</v>
       </c>
     </row>
-    <row r="1547" ht="18.35" spans="1:4">
+    <row r="1547" ht="31.75" spans="1:4">
       <c r="A1547" s="4" t="s">
         <v>4436</v>
       </c>
       <c r="B1547" s="4" t="s">
-        <v>4437</v>
+        <v>3836</v>
       </c>
       <c r="C1547" s="5"/>
       <c r="D1547" s="4" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="1548" ht="31.75" spans="1:4">
+      <c r="A1548" s="4" t="s">
         <v>4438</v>
       </c>
-    </row>
-    <row r="1548" ht="18.35" spans="1:4">
-      <c r="A1548" s="4" t="s">
+      <c r="B1548" s="4" t="s">
         <v>4439</v>
-      </c>
-      <c r="B1548" s="4" t="s">
-        <v>1949</v>
       </c>
       <c r="C1548" s="5"/>
       <c r="D1548" s="4" t="s">
         <v>4440</v>
       </c>
     </row>
-    <row r="1549" ht="18.35" spans="1:4">
+    <row r="1549" ht="31.75" spans="1:4">
       <c r="A1549" s="4" t="s">
         <v>4441</v>
       </c>
@@ -34421,7 +34469,7 @@
         <v>4443</v>
       </c>
     </row>
-    <row r="1550" ht="18.35" spans="1:4">
+    <row r="1550" ht="31.75" spans="1:4">
       <c r="A1550" s="4" t="s">
         <v>4444</v>
       </c>
@@ -34450,146 +34498,146 @@
         <v>4450</v>
       </c>
       <c r="B1552" s="4" t="s">
-        <v>4451</v>
+        <v>3083</v>
       </c>
       <c r="C1552" s="5"/>
       <c r="D1552" s="4" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1553" ht="18.35" spans="1:4">
       <c r="A1553" s="4" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B1553" s="4" t="s">
         <v>4453</v>
-      </c>
-      <c r="B1553" s="4" t="s">
-        <v>4454</v>
       </c>
       <c r="C1553" s="5"/>
       <c r="D1553" s="4" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="1554" ht="18.35" spans="1:4">
+      <c r="A1554" s="4" t="s">
         <v>4455</v>
       </c>
-    </row>
-    <row r="1554" ht="31.75" spans="1:4">
-      <c r="A1554" s="4" t="s">
-        <v>4456</v>
-      </c>
       <c r="B1554" s="4" t="s">
-        <v>4457</v>
+        <v>1949</v>
       </c>
       <c r="C1554" s="5"/>
       <c r="D1554" s="4" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="1555" ht="18.35" spans="1:4">
+      <c r="A1555" s="4" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B1555" s="4" t="s">
         <v>4458</v>
-      </c>
-    </row>
-    <row r="1555" ht="31.75" spans="1:4">
-      <c r="A1555" s="4" t="s">
-        <v>4459</v>
-      </c>
-      <c r="B1555" s="4" t="s">
-        <v>4460</v>
       </c>
       <c r="C1555" s="5"/>
       <c r="D1555" s="4" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="1556" ht="18.35" spans="1:4">
+      <c r="A1556" s="4" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B1556" s="4" t="s">
         <v>4461</v>
-      </c>
-    </row>
-    <row r="1556" ht="31.75" spans="1:4">
-      <c r="A1556" s="4" t="s">
-        <v>4462</v>
-      </c>
-      <c r="B1556" s="4" t="s">
-        <v>4463</v>
       </c>
       <c r="C1556" s="5"/>
       <c r="D1556" s="4" t="s">
-        <v>4464</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1557" ht="31.75" spans="1:4">
       <c r="A1557" s="4" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="B1557" s="4" t="s">
-        <v>4466</v>
+        <v>4464</v>
       </c>
       <c r="C1557" s="5"/>
       <c r="D1557" s="4" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="1558" ht="18.35" spans="1:4">
+      <c r="A1558" s="4" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B1558" s="4" t="s">
         <v>4467</v>
-      </c>
-    </row>
-    <row r="1558" ht="31.75" spans="1:4">
-      <c r="A1558" s="4" t="s">
-        <v>4468</v>
-      </c>
-      <c r="B1558" s="4" t="s">
-        <v>4469</v>
       </c>
       <c r="C1558" s="5"/>
       <c r="D1558" s="4" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1559" ht="18.35" spans="1:4">
       <c r="A1559" s="4" t="s">
-        <v>4471</v>
+        <v>4469</v>
       </c>
       <c r="B1559" s="4" t="s">
-        <v>4472</v>
+        <v>4470</v>
       </c>
       <c r="C1559" s="5"/>
       <c r="D1559" s="4" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1560" ht="31.75" spans="1:4">
       <c r="A1560" s="4" t="s">
-        <v>4474</v>
+        <v>4472</v>
       </c>
       <c r="B1560" s="4" t="s">
-        <v>4429</v>
+        <v>4473</v>
       </c>
       <c r="C1560" s="5"/>
       <c r="D1560" s="4" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="1561" ht="31.75" spans="1:4">
+      <c r="A1561" s="4" t="s">
         <v>4475</v>
       </c>
-    </row>
-    <row r="1561" ht="18.35" spans="1:4">
-      <c r="A1561" s="4" t="s">
+      <c r="B1561" s="4" t="s">
         <v>4476</v>
-      </c>
-      <c r="B1561" s="4" t="s">
-        <v>4477</v>
       </c>
       <c r="C1561" s="5"/>
       <c r="D1561" s="4" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="1562" ht="31.75" spans="1:4">
+      <c r="A1562" s="4" t="s">
         <v>4478</v>
       </c>
-    </row>
-    <row r="1562" ht="18.35" spans="1:4">
-      <c r="A1562" s="4" t="s">
+      <c r="B1562" s="4" t="s">
         <v>4479</v>
-      </c>
-      <c r="B1562" s="4" t="s">
-        <v>4480</v>
       </c>
       <c r="C1562" s="5"/>
       <c r="D1562" s="4" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1563" ht="31.75" spans="1:4">
       <c r="A1563" s="4" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B1563" s="4" t="s">
         <v>4482</v>
-      </c>
-      <c r="B1563" s="4" t="s">
-        <v>4318</v>
       </c>
       <c r="C1563" s="5"/>
       <c r="D1563" s="4" t="s">
         <v>4483</v>
       </c>
     </row>
-    <row r="1564" ht="18.35" spans="1:4">
+    <row r="1564" ht="31.75" spans="1:4">
       <c r="A1564" s="4" t="s">
         <v>4484</v>
       </c>
@@ -34613,168 +34661,168 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="1566" ht="18.35" spans="1:4">
+    <row r="1566" ht="31.75" spans="1:4">
       <c r="A1566" s="4" t="s">
         <v>4490</v>
       </c>
       <c r="B1566" s="4" t="s">
-        <v>4491</v>
+        <v>4445</v>
       </c>
       <c r="C1566" s="5"/>
       <c r="D1566" s="4" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="1567" ht="18.35" spans="1:4">
+      <c r="A1567" s="4" t="s">
         <v>4492</v>
       </c>
-    </row>
-    <row r="1567" ht="31.75" spans="1:4">
-      <c r="A1567" s="4" t="s">
+      <c r="B1567" s="4" t="s">
         <v>4493</v>
-      </c>
-      <c r="B1567" s="4" t="s">
-        <v>4494</v>
       </c>
       <c r="C1567" s="5"/>
       <c r="D1567" s="4" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="1568" ht="18.35" spans="1:4">
+      <c r="A1568" s="4" t="s">
         <v>4495</v>
       </c>
-    </row>
-    <row r="1568" ht="31.75" spans="1:4">
-      <c r="A1568" s="4" t="s">
+      <c r="B1568" s="4" t="s">
         <v>4496</v>
-      </c>
-      <c r="B1568" s="4" t="s">
-        <v>4497</v>
       </c>
       <c r="C1568" s="5"/>
       <c r="D1568" s="4" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="1569" ht="31.75" spans="1:4">
+      <c r="A1569" s="4" t="s">
         <v>4498</v>
       </c>
-    </row>
-    <row r="1569" ht="18.35" spans="1:4">
-      <c r="A1569" s="4" t="s">
-        <v>4499</v>
-      </c>
       <c r="B1569" s="4" t="s">
-        <v>4500</v>
+        <v>4336</v>
       </c>
       <c r="C1569" s="5"/>
       <c r="D1569" s="4" t="s">
-        <v>4501</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1570" ht="18.35" spans="1:4">
       <c r="A1570" s="4" t="s">
-        <v>4502</v>
+        <v>4500</v>
       </c>
       <c r="B1570" s="4" t="s">
-        <v>883</v>
+        <v>4501</v>
       </c>
       <c r="C1570" s="5"/>
       <c r="D1570" s="4" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1571" ht="18.35" spans="1:4">
       <c r="A1571" s="4" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B1571" s="4" t="s">
         <v>4504</v>
-      </c>
-      <c r="B1571" s="4" t="s">
-        <v>4505</v>
       </c>
       <c r="C1571" s="5"/>
       <c r="D1571" s="4" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1572" ht="18.35" spans="1:4">
       <c r="A1572" s="4" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B1572" s="4" t="s">
         <v>4507</v>
-      </c>
-      <c r="B1572" s="4" t="s">
-        <v>4508</v>
       </c>
       <c r="C1572" s="5"/>
       <c r="D1572" s="4" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="1573" ht="31.75" spans="1:4">
+      <c r="A1573" s="4" t="s">
         <v>4509</v>
       </c>
-    </row>
-    <row r="1573" ht="18.35" spans="1:4">
-      <c r="A1573" s="4" t="s">
+      <c r="B1573" s="4" t="s">
         <v>4510</v>
-      </c>
-      <c r="B1573" s="4" t="s">
-        <v>4511</v>
       </c>
       <c r="C1573" s="5"/>
       <c r="D1573" s="4" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="1574" ht="31.75" spans="1:4">
+      <c r="A1574" s="4" t="s">
         <v>4512</v>
       </c>
-    </row>
-    <row r="1574" ht="18.35" spans="1:4">
-      <c r="A1574" s="4" t="s">
+      <c r="B1574" s="4" t="s">
         <v>4513</v>
-      </c>
-      <c r="B1574" s="4" t="s">
-        <v>4514</v>
       </c>
       <c r="C1574" s="5"/>
       <c r="D1574" s="4" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="1575" ht="18.35" spans="1:4">
+      <c r="A1575" s="4" t="s">
         <v>4515</v>
       </c>
-    </row>
-    <row r="1575" ht="31.75" spans="1:4">
-      <c r="A1575" s="4" t="s">
+      <c r="B1575" s="4" t="s">
         <v>4516</v>
-      </c>
-      <c r="B1575" s="4" t="s">
-        <v>4517</v>
       </c>
       <c r="C1575" s="5"/>
       <c r="D1575" s="4" t="s">
-        <v>4518</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1576" ht="18.35" spans="1:4">
       <c r="A1576" s="4" t="s">
-        <v>4519</v>
+        <v>4518</v>
       </c>
       <c r="B1576" s="4" t="s">
-        <v>4520</v>
+        <v>883</v>
       </c>
       <c r="C1576" s="5"/>
       <c r="D1576" s="4" t="s">
-        <v>4521</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1577" ht="18.35" spans="1:4">
       <c r="A1577" s="4" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="B1577" s="4" t="s">
-        <v>1590</v>
+        <v>4521</v>
       </c>
       <c r="C1577" s="5"/>
       <c r="D1577" s="4" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="1578" ht="18.35" spans="1:4">
+      <c r="A1578" s="4" t="s">
         <v>4523</v>
       </c>
-    </row>
-    <row r="1578" ht="31.75" spans="1:4">
-      <c r="A1578" s="4" t="s">
+      <c r="B1578" s="4" t="s">
         <v>4524</v>
-      </c>
-      <c r="B1578" s="4" t="s">
-        <v>4525</v>
       </c>
       <c r="C1578" s="5"/>
       <c r="D1578" s="4" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1579" ht="18.35" spans="1:4">
       <c r="A1579" s="4" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B1579" s="4" t="s">
         <v>4527</v>
-      </c>
-      <c r="B1579" s="4" t="s">
-        <v>1517</v>
       </c>
       <c r="C1579" s="5"/>
       <c r="D1579" s="4" t="s">
@@ -34798,55 +34846,55 @@
         <v>4532</v>
       </c>
       <c r="B1581" s="4" t="s">
-        <v>4336</v>
+        <v>4533</v>
       </c>
       <c r="C1581" s="5"/>
       <c r="D1581" s="4" t="s">
-        <v>4533</v>
-      </c>
-    </row>
-    <row r="1582" ht="31.75" spans="1:4">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="1582" ht="18.35" spans="1:4">
       <c r="A1582" s="4" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="B1582" s="4" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="C1582" s="5"/>
       <c r="D1582" s="4" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1583" ht="18.35" spans="1:4">
       <c r="A1583" s="4" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="B1583" s="4" t="s">
-        <v>4004</v>
+        <v>1590</v>
       </c>
       <c r="C1583" s="5"/>
       <c r="D1583" s="4" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1584" ht="31.75" spans="1:4">
       <c r="A1584" s="4" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="B1584" s="4" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="C1584" s="5"/>
       <c r="D1584" s="4" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1585" ht="18.35" spans="1:4">
       <c r="A1585" s="4" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="B1585" s="4" t="s">
-        <v>4543</v>
+        <v>1517</v>
       </c>
       <c r="C1585" s="5"/>
       <c r="D1585" s="4" t="s">
@@ -34865,24 +34913,24 @@
         <v>4547</v>
       </c>
     </row>
-    <row r="1587" ht="18.35" spans="1:4">
+    <row r="1587" ht="31.75" spans="1:4">
       <c r="A1587" s="4" t="s">
         <v>4548</v>
       </c>
       <c r="B1587" s="4" t="s">
-        <v>4549</v>
+        <v>4354</v>
       </c>
       <c r="C1587" s="5"/>
       <c r="D1587" s="4" t="s">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="1588" ht="31.75" spans="1:4">
+      <c r="A1588" s="4" t="s">
         <v>4550</v>
       </c>
-    </row>
-    <row r="1588" ht="18.35" spans="1:4">
-      <c r="A1588" s="4" t="s">
+      <c r="B1588" s="4" t="s">
         <v>4551</v>
-      </c>
-      <c r="B1588" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="C1588" s="5"/>
       <c r="D1588" s="4" t="s">
@@ -34894,50 +34942,50 @@
         <v>4553</v>
       </c>
       <c r="B1589" s="4" t="s">
-        <v>4554</v>
+        <v>4022</v>
       </c>
       <c r="C1589" s="5"/>
       <c r="D1589" s="4" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1590" ht="31.75" spans="1:4">
       <c r="A1590" s="4" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B1590" s="4" t="s">
         <v>4556</v>
-      </c>
-      <c r="B1590" s="4" t="s">
-        <v>4557</v>
       </c>
       <c r="C1590" s="5"/>
       <c r="D1590" s="4" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="1591" ht="18.35" spans="1:4">
+      <c r="A1591" s="4" t="s">
         <v>4558</v>
       </c>
-    </row>
-    <row r="1591" ht="31.75" spans="1:4">
-      <c r="A1591" s="4" t="s">
+      <c r="B1591" s="4" t="s">
         <v>4559</v>
-      </c>
-      <c r="B1591" s="4" t="s">
-        <v>4560</v>
       </c>
       <c r="C1591" s="5"/>
       <c r="D1591" s="4" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="1592" ht="18.35" spans="1:4">
       <c r="A1592" s="4" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B1592" s="4" t="s">
         <v>4562</v>
-      </c>
-      <c r="B1592" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="C1592" s="5"/>
       <c r="D1592" s="4" t="s">
         <v>4563</v>
       </c>
     </row>
-    <row r="1593" ht="31.75" spans="1:4">
+    <row r="1593" ht="18.35" spans="1:4">
       <c r="A1593" s="4" t="s">
         <v>4564</v>
       </c>
@@ -34954,7 +35002,7 @@
         <v>4567</v>
       </c>
       <c r="B1594" s="4" t="s">
-        <v>4520</v>
+        <v>226</v>
       </c>
       <c r="C1594" s="5"/>
       <c r="D1594" s="4" t="s">
@@ -34973,36 +35021,36 @@
         <v>4571</v>
       </c>
     </row>
-    <row r="1596" ht="18.35" spans="1:4">
+    <row r="1596" ht="31.75" spans="1:4">
       <c r="A1596" s="4" t="s">
         <v>4572</v>
       </c>
       <c r="B1596" s="4" t="s">
-        <v>1705</v>
+        <v>4573</v>
       </c>
       <c r="C1596" s="5"/>
       <c r="D1596" s="4" t="s">
-        <v>4573</v>
-      </c>
-    </row>
-    <row r="1597" ht="18.35" spans="1:4">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="1597" ht="31.75" spans="1:4">
       <c r="A1597" s="4" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="B1597" s="4" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="C1597" s="5"/>
       <c r="D1597" s="4" t="s">
-        <v>4576</v>
-      </c>
-    </row>
-    <row r="1598" ht="31.75" spans="1:4">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="1598" ht="18.35" spans="1:4">
       <c r="A1598" s="4" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="B1598" s="4" t="s">
-        <v>4578</v>
+        <v>223</v>
       </c>
       <c r="C1598" s="5"/>
       <c r="D1598" s="4" t="s">
@@ -35021,19 +35069,19 @@
         <v>4582</v>
       </c>
     </row>
-    <row r="1600" ht="31.75" spans="1:4">
+    <row r="1600" ht="18.35" spans="1:4">
       <c r="A1600" s="4" t="s">
         <v>4583</v>
       </c>
       <c r="B1600" s="4" t="s">
-        <v>4540</v>
+        <v>4536</v>
       </c>
       <c r="C1600" s="5"/>
       <c r="D1600" s="4" t="s">
         <v>4584</v>
       </c>
     </row>
-    <row r="1601" ht="31.75" spans="1:4">
+    <row r="1601" ht="18.35" spans="1:4">
       <c r="A1601" s="4" t="s">
         <v>4585</v>
       </c>
@@ -35045,384 +35093,384 @@
         <v>4587</v>
       </c>
     </row>
-    <row r="1602" ht="31.75" spans="1:4">
+    <row r="1602" ht="18.35" spans="1:4">
       <c r="A1602" s="4" t="s">
         <v>4588</v>
       </c>
       <c r="B1602" s="4" t="s">
-        <v>4589</v>
+        <v>1705</v>
       </c>
       <c r="C1602" s="5"/>
       <c r="D1602" s="4" t="s">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="1603" ht="18.35" spans="1:4">
+      <c r="A1603" s="4" t="s">
         <v>4590</v>
       </c>
-    </row>
-    <row r="1603" ht="31.75" spans="1:4">
-      <c r="A1603" s="4" t="s">
+      <c r="B1603" s="4" t="s">
         <v>4591</v>
-      </c>
-      <c r="B1603" s="4" t="s">
-        <v>4592</v>
       </c>
       <c r="C1603" s="5"/>
       <c r="D1603" s="4" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1604" ht="31.75" spans="1:4">
       <c r="A1604" s="4" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B1604" s="4" t="s">
         <v>4594</v>
-      </c>
-      <c r="B1604" s="4" t="s">
-        <v>4595</v>
       </c>
       <c r="C1604" s="5"/>
       <c r="D1604" s="4" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1605" ht="31.75" spans="1:4">
       <c r="A1605" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B1605" s="4" t="s">
         <v>4597</v>
-      </c>
-      <c r="B1605" s="4" t="s">
-        <v>4598</v>
       </c>
       <c r="C1605" s="5"/>
       <c r="D1605" s="4" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="1606" ht="31.75" spans="1:4">
+      <c r="A1606" s="4" t="s">
         <v>4599</v>
       </c>
-    </row>
-    <row r="1606" ht="18.35" spans="1:4">
-      <c r="A1606" s="4" t="s">
-        <v>4600</v>
-      </c>
       <c r="B1606" s="4" t="s">
-        <v>4601</v>
+        <v>4556</v>
       </c>
       <c r="C1606" s="5"/>
       <c r="D1606" s="4" t="s">
-        <v>4602</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1607" ht="31.75" spans="1:4">
       <c r="A1607" s="4" t="s">
-        <v>4603</v>
+        <v>4601</v>
       </c>
       <c r="B1607" s="4" t="s">
-        <v>4604</v>
+        <v>4602</v>
       </c>
       <c r="C1607" s="5"/>
       <c r="D1607" s="4" t="s">
-        <v>4605</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1608" ht="31.75" spans="1:4">
       <c r="A1608" s="4" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="B1608" s="4" t="s">
-        <v>4607</v>
+        <v>4605</v>
       </c>
       <c r="C1608" s="5"/>
       <c r="D1608" s="4" t="s">
-        <v>4608</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1609" ht="31.75" spans="1:4">
       <c r="A1609" s="4" t="s">
-        <v>4609</v>
+        <v>4607</v>
       </c>
       <c r="B1609" s="4" t="s">
-        <v>4610</v>
+        <v>4608</v>
       </c>
       <c r="C1609" s="5"/>
       <c r="D1609" s="4" t="s">
-        <v>4611</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1610" ht="31.75" spans="1:4">
       <c r="A1610" s="4" t="s">
-        <v>4612</v>
+        <v>4610</v>
       </c>
       <c r="B1610" s="4" t="s">
-        <v>4613</v>
+        <v>4611</v>
       </c>
       <c r="C1610" s="5"/>
       <c r="D1610" s="4" t="s">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="1611" ht="31.75" spans="1:4">
+      <c r="A1611" s="4" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B1611" s="4" t="s">
         <v>4614</v>
-      </c>
-    </row>
-    <row r="1611" ht="18.35" spans="1:4">
-      <c r="A1611" s="4" t="s">
-        <v>4615</v>
-      </c>
-      <c r="B1611" s="4" t="s">
-        <v>4616</v>
       </c>
       <c r="C1611" s="5"/>
       <c r="D1611" s="4" t="s">
-        <v>4617</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1612" ht="18.35" spans="1:4">
       <c r="A1612" s="4" t="s">
-        <v>4618</v>
+        <v>4616</v>
       </c>
       <c r="B1612" s="4" t="s">
-        <v>1847</v>
+        <v>4617</v>
       </c>
       <c r="C1612" s="5"/>
       <c r="D1612" s="4" t="s">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="1613" ht="31.75" spans="1:4">
+      <c r="A1613" s="4" t="s">
         <v>4619</v>
       </c>
-    </row>
-    <row r="1613" ht="18.35" spans="1:4">
-      <c r="A1613" s="4" t="s">
+      <c r="B1613" s="4" t="s">
         <v>4620</v>
-      </c>
-      <c r="B1613" s="4" t="s">
-        <v>4621</v>
       </c>
       <c r="C1613" s="5"/>
       <c r="D1613" s="4" t="s">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="1614" ht="31.75" spans="1:4">
+      <c r="A1614" s="4" t="s">
         <v>4622</v>
       </c>
-    </row>
-    <row r="1614" ht="18.35" spans="1:4">
-      <c r="A1614" s="4" t="s">
+      <c r="B1614" s="4" t="s">
         <v>4623</v>
-      </c>
-      <c r="B1614" s="4" t="s">
-        <v>4624</v>
       </c>
       <c r="C1614" s="5"/>
       <c r="D1614" s="4" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1615" ht="31.75" spans="1:4">
       <c r="A1615" s="4" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B1615" s="4" t="s">
         <v>4626</v>
-      </c>
-      <c r="B1615" s="4" t="s">
-        <v>4627</v>
       </c>
       <c r="C1615" s="5"/>
       <c r="D1615" s="4" t="s">
-        <v>4628</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="1616" ht="31.75" spans="1:4">
       <c r="A1616" s="4" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B1616" s="4" t="s">
         <v>4629</v>
-      </c>
-      <c r="B1616" s="4" t="s">
-        <v>4630</v>
       </c>
       <c r="C1616" s="5"/>
       <c r="D1616" s="4" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="1617" ht="18.35" spans="1:4">
+      <c r="A1617" s="4" t="s">
         <v>4631</v>
       </c>
-    </row>
-    <row r="1617" ht="31.75" spans="1:4">
-      <c r="A1617" s="4" t="s">
+      <c r="B1617" s="4" t="s">
         <v>4632</v>
-      </c>
-      <c r="B1617" s="4" t="s">
-        <v>4633</v>
       </c>
       <c r="C1617" s="5"/>
       <c r="D1617" s="4" t="s">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="1618" ht="18.35" spans="1:4">
+      <c r="A1618" s="4" t="s">
         <v>4634</v>
       </c>
-    </row>
-    <row r="1618" ht="31.75" spans="1:4">
-      <c r="A1618" s="4" t="s">
-        <v>4635</v>
-      </c>
       <c r="B1618" s="4" t="s">
-        <v>4636</v>
+        <v>1847</v>
       </c>
       <c r="C1618" s="5"/>
       <c r="D1618" s="4" t="s">
-        <v>4637</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="1619" ht="18.35" spans="1:4">
       <c r="A1619" s="4" t="s">
-        <v>4638</v>
+        <v>4636</v>
       </c>
       <c r="B1619" s="4" t="s">
-        <v>4639</v>
+        <v>4637</v>
       </c>
       <c r="C1619" s="5"/>
       <c r="D1619" s="4" t="s">
-        <v>4640</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="1620" ht="18.35" spans="1:4">
       <c r="A1620" s="4" t="s">
-        <v>4641</v>
+        <v>4639</v>
       </c>
       <c r="B1620" s="4" t="s">
-        <v>4642</v>
+        <v>4640</v>
       </c>
       <c r="C1620" s="5"/>
       <c r="D1620" s="4" t="s">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="1621" ht="31.75" spans="1:4">
+      <c r="A1621" s="4" t="s">
+        <v>4642</v>
+      </c>
+      <c r="B1621" s="4" t="s">
         <v>4643</v>
-      </c>
-    </row>
-    <row r="1621" ht="18.35" spans="1:4">
-      <c r="A1621" s="4" t="s">
-        <v>4644</v>
-      </c>
-      <c r="B1621" s="4" t="s">
-        <v>4645</v>
       </c>
       <c r="C1621" s="5"/>
       <c r="D1621" s="4" t="s">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="1622" ht="31.75" spans="1:4">
+      <c r="A1622" s="4" t="s">
+        <v>4645</v>
+      </c>
+      <c r="B1622" s="4" t="s">
         <v>4646</v>
-      </c>
-    </row>
-    <row r="1622" ht="18.35" spans="1:4">
-      <c r="A1622" s="4" t="s">
-        <v>4647</v>
-      </c>
-      <c r="B1622" s="4" t="s">
-        <v>4648</v>
       </c>
       <c r="C1622" s="5"/>
       <c r="D1622" s="4" t="s">
-        <v>4649</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="1623" ht="31.75" spans="1:4">
       <c r="A1623" s="4" t="s">
-        <v>4650</v>
+        <v>4648</v>
       </c>
       <c r="B1623" s="4" t="s">
-        <v>4651</v>
+        <v>4649</v>
       </c>
       <c r="C1623" s="5"/>
       <c r="D1623" s="4" t="s">
-        <v>4652</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1624" ht="31.75" spans="1:4">
       <c r="A1624" s="4" t="s">
-        <v>4653</v>
+        <v>4651</v>
       </c>
       <c r="B1624" s="4" t="s">
-        <v>4654</v>
+        <v>4652</v>
       </c>
       <c r="C1624" s="5"/>
       <c r="D1624" s="4" t="s">
-        <v>4655</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="1625" ht="18.35" spans="1:4">
       <c r="A1625" s="4" t="s">
-        <v>4656</v>
+        <v>4654</v>
       </c>
       <c r="B1625" s="4" t="s">
-        <v>4657</v>
+        <v>4655</v>
       </c>
       <c r="C1625" s="5"/>
       <c r="D1625" s="4" t="s">
-        <v>4658</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1626" ht="18.35" spans="1:4">
       <c r="A1626" s="4" t="s">
-        <v>4659</v>
+        <v>4657</v>
       </c>
       <c r="B1626" s="4" t="s">
-        <v>4660</v>
+        <v>4658</v>
       </c>
       <c r="C1626" s="5"/>
       <c r="D1626" s="4" t="s">
-        <v>4661</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="1627" ht="18.35" spans="1:4">
       <c r="A1627" s="4" t="s">
-        <v>4662</v>
+        <v>4660</v>
       </c>
       <c r="B1627" s="4" t="s">
-        <v>3919</v>
+        <v>4661</v>
       </c>
       <c r="C1627" s="5"/>
       <c r="D1627" s="4" t="s">
-        <v>4663</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="1628" ht="18.35" spans="1:4">
       <c r="A1628" s="4" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B1628" s="4" t="s">
         <v>4664</v>
-      </c>
-      <c r="B1628" s="4" t="s">
-        <v>4665</v>
       </c>
       <c r="C1628" s="5"/>
       <c r="D1628" s="4" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="1629" ht="31.75" spans="1:4">
+      <c r="A1629" s="4" t="s">
         <v>4666</v>
       </c>
-    </row>
-    <row r="1629" ht="18.35" spans="1:4">
-      <c r="A1629" s="4" t="s">
+      <c r="B1629" s="4" t="s">
         <v>4667</v>
-      </c>
-      <c r="B1629" s="4" t="s">
-        <v>2295</v>
       </c>
       <c r="C1629" s="5"/>
       <c r="D1629" s="4" t="s">
         <v>4668</v>
       </c>
     </row>
-    <row r="1630" ht="18.35" spans="1:4">
+    <row r="1630" ht="31.75" spans="1:4">
       <c r="A1630" s="4" t="s">
         <v>4669</v>
       </c>
       <c r="B1630" s="4" t="s">
-        <v>3934</v>
+        <v>4670</v>
       </c>
       <c r="C1630" s="5"/>
       <c r="D1630" s="4" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="1631" ht="18.35" spans="1:4">
       <c r="A1631" s="4" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
       <c r="B1631" s="4" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
       <c r="C1631" s="5"/>
       <c r="D1631" s="4" t="s">
-        <v>4673</v>
-      </c>
-    </row>
-    <row r="1632" ht="31.75" spans="1:4">
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="1632" ht="18.35" spans="1:4">
       <c r="A1632" s="4" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
       <c r="B1632" s="4" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
       <c r="C1632" s="5"/>
       <c r="D1632" s="4" t="s">
-        <v>4676</v>
-      </c>
-    </row>
-    <row r="1633" ht="31.75" spans="1:4">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="1633" ht="18.35" spans="1:4">
       <c r="A1633" s="4" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
       <c r="B1633" s="4" t="s">
-        <v>4678</v>
+        <v>3937</v>
       </c>
       <c r="C1633" s="5"/>
       <c r="D1633" s="4" t="s">
@@ -35446,71 +35494,143 @@
         <v>4683</v>
       </c>
       <c r="B1635" s="4" t="s">
-        <v>4684</v>
+        <v>2295</v>
       </c>
       <c r="C1635" s="5"/>
       <c r="D1635" s="4" t="s">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="1636" ht="18.35" spans="1:4">
+      <c r="A1636" s="4" t="s">
         <v>4685</v>
       </c>
-    </row>
-    <row r="1636" ht="31.75" spans="1:4">
-      <c r="A1636" s="4" t="s">
-        <v>4686</v>
-      </c>
       <c r="B1636" s="4" t="s">
-        <v>4687</v>
+        <v>3952</v>
       </c>
       <c r="C1636" s="5"/>
       <c r="D1636" s="4" t="s">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="1637" ht="18.35" spans="1:4">
+      <c r="A1637" s="4" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B1637" s="4" t="s">
         <v>4688</v>
-      </c>
-    </row>
-    <row r="1637" ht="31.75" spans="1:4">
-      <c r="A1637" s="4" t="s">
-        <v>4689</v>
-      </c>
-      <c r="B1637" s="4" t="s">
-        <v>4690</v>
       </c>
       <c r="C1637" s="5"/>
       <c r="D1637" s="4" t="s">
-        <v>4691</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="1638" ht="31.75" spans="1:4">
       <c r="A1638" s="4" t="s">
-        <v>4692</v>
+        <v>4690</v>
       </c>
       <c r="B1638" s="4" t="s">
-        <v>4693</v>
+        <v>4691</v>
       </c>
       <c r="C1638" s="5"/>
       <c r="D1638" s="4" t="s">
-        <v>4694</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="1639" ht="31.75" spans="1:4">
       <c r="A1639" s="4" t="s">
-        <v>4695</v>
+        <v>4693</v>
       </c>
       <c r="B1639" s="4" t="s">
-        <v>4696</v>
+        <v>4694</v>
       </c>
       <c r="C1639" s="5"/>
       <c r="D1639" s="4" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1640" ht="18.35" spans="1:4">
+      <c r="A1640" s="4" t="s">
+        <v>4696</v>
+      </c>
+      <c r="B1640" s="4" t="s">
         <v>4697</v>
-      </c>
-    </row>
-    <row r="1640" ht="31.75" spans="1:4">
-      <c r="A1640" s="4" t="s">
-        <v>4698</v>
-      </c>
-      <c r="B1640" s="4" t="s">
-        <v>2075</v>
       </c>
       <c r="C1640" s="5"/>
       <c r="D1640" s="4" t="s">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="1641" ht="18.35" spans="1:4">
+      <c r="A1641" s="4" t="s">
         <v>4699</v>
+      </c>
+      <c r="B1641" s="4" t="s">
+        <v>4700</v>
+      </c>
+      <c r="C1641" s="5"/>
+      <c r="D1641" s="4" t="s">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="1642" ht="31.75" spans="1:4">
+      <c r="A1642" s="4" t="s">
+        <v>4702</v>
+      </c>
+      <c r="B1642" s="4" t="s">
+        <v>4703</v>
+      </c>
+      <c r="C1642" s="5"/>
+      <c r="D1642" s="4" t="s">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="1643" ht="31.75" spans="1:4">
+      <c r="A1643" s="4" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B1643" s="4" t="s">
+        <v>4706</v>
+      </c>
+      <c r="C1643" s="5"/>
+      <c r="D1643" s="4" t="s">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="1644" ht="31.75" spans="1:4">
+      <c r="A1644" s="4" t="s">
+        <v>4708</v>
+      </c>
+      <c r="B1644" s="4" t="s">
+        <v>4709</v>
+      </c>
+      <c r="C1644" s="5"/>
+      <c r="D1644" s="4" t="s">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="1645" ht="31.75" spans="1:4">
+      <c r="A1645" s="4" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B1645" s="4" t="s">
+        <v>4712</v>
+      </c>
+      <c r="C1645" s="5"/>
+      <c r="D1645" s="4" t="s">
+        <v>4713</v>
+      </c>
+    </row>
+    <row r="1646" ht="31.75" spans="1:4">
+      <c r="A1646" s="4" t="s">
+        <v>4714</v>
+      </c>
+      <c r="B1646" s="4" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1646" s="5"/>
+      <c r="D1646" s="4" t="s">
+        <v>4715</v>
       </c>
     </row>
   </sheetData>
